--- a/03 绩效报告/丽泽项目代码学习进度.xlsx
+++ b/03 绩效报告/丽泽项目代码学习进度.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19204" windowHeight="8168"/>
   </bookViews>
   <sheets>
     <sheet name="代码学习进度" sheetId="1" r:id="rId1"/>
     <sheet name="API学习计划" sheetId="2" r:id="rId2"/>
-    <sheet name="Server代码修改计划" sheetId="5" r:id="rId3"/>
-    <sheet name="功能新增" sheetId="6" r:id="rId4"/>
+    <sheet name="Server代码修改详细" sheetId="5" r:id="rId3"/>
+    <sheet name="修改milestone" sheetId="7" r:id="rId4"/>
+    <sheet name="功能新增" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">代码学习进度!$C$1:$C$213</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="460">
   <si>
     <t>（一）基础功能</t>
   </si>
@@ -1566,6 +1567,26 @@
   </si>
   <si>
     <t>新建/保存功能/元素校验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码环境搭建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2055,55 +2076,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>15876</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3787</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E43FB6A5-A29A-4D79-8190-CFCC2B233B2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11564939" y="627064"/>
-          <a:ext cx="2718411" cy="2651124"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2112,7 +2084,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2369,20 +2341,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H213"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.4140625" customWidth="1"/>
+    <col min="2" max="2" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>262</v>
       </c>
@@ -2405,7 +2379,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B2" s="16">
         <v>1</v>
       </c>
@@ -2428,7 +2402,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B3" s="16">
         <v>2</v>
       </c>
@@ -2451,7 +2425,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B4" s="16">
         <v>3</v>
       </c>
@@ -2474,7 +2448,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B5" s="16">
         <v>4</v>
       </c>
@@ -2497,7 +2471,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B6" s="16">
         <v>5</v>
       </c>
@@ -2520,7 +2494,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B7" s="16">
         <v>6</v>
       </c>
@@ -2543,7 +2517,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B8" s="16">
         <v>7</v>
       </c>
@@ -2566,7 +2540,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B9" s="16">
         <v>8</v>
       </c>
@@ -2589,7 +2563,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B10" s="16">
         <v>9</v>
       </c>
@@ -2612,7 +2586,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B11" s="16">
         <v>10</v>
       </c>
@@ -2635,7 +2609,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B12" s="16">
         <v>11</v>
       </c>
@@ -2658,7 +2632,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B13" s="16">
         <v>12</v>
       </c>
@@ -2681,7 +2655,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B14" s="16">
         <v>13</v>
       </c>
@@ -2704,7 +2678,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B15" s="16">
         <v>14</v>
       </c>
@@ -2727,7 +2701,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B16" s="16">
         <v>15</v>
       </c>
@@ -2750,7 +2724,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B17" s="16">
         <v>16</v>
       </c>
@@ -2773,7 +2747,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B18" s="16">
         <v>17</v>
       </c>
@@ -2796,7 +2770,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B19" s="16">
         <v>18</v>
       </c>
@@ -2819,7 +2793,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B20" s="16">
         <v>19</v>
       </c>
@@ -2842,7 +2816,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B21" s="16">
         <v>20</v>
       </c>
@@ -2865,7 +2839,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B22" s="16">
         <v>21</v>
       </c>
@@ -2888,7 +2862,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B23" s="16">
         <v>22</v>
       </c>
@@ -2911,7 +2885,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B24" s="16">
         <v>23</v>
       </c>
@@ -2934,7 +2908,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B25" s="16">
         <v>24</v>
       </c>
@@ -2957,7 +2931,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B26" s="16">
         <v>25</v>
       </c>
@@ -2980,7 +2954,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B27" s="16">
         <v>26</v>
       </c>
@@ -3003,7 +2977,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B28" s="16">
         <v>27</v>
       </c>
@@ -3026,7 +3000,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B29" s="16">
         <v>28</v>
       </c>
@@ -3049,7 +3023,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B30" s="16">
         <v>29</v>
       </c>
@@ -3072,7 +3046,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B31" s="16">
         <v>30</v>
       </c>
@@ -3095,7 +3069,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B32" s="16">
         <v>31</v>
       </c>
@@ -3118,7 +3092,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B33" s="16">
         <v>32</v>
       </c>
@@ -3141,7 +3115,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B34" s="16">
         <v>33</v>
       </c>
@@ -3164,7 +3138,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B35" s="16">
         <v>34</v>
       </c>
@@ -3187,7 +3161,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B36" s="16">
         <v>35</v>
       </c>
@@ -3210,7 +3184,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B37" s="16">
         <v>36</v>
       </c>
@@ -3233,7 +3207,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B38" s="16">
         <v>37</v>
       </c>
@@ -3256,7 +3230,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B39" s="16">
         <v>38</v>
       </c>
@@ -3279,7 +3253,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B40" s="16">
         <v>39</v>
       </c>
@@ -3302,7 +3276,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B41" s="16">
         <v>40</v>
       </c>
@@ -3325,7 +3299,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B42" s="16">
         <v>41</v>
       </c>
@@ -3348,7 +3322,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B43" s="16">
         <v>42</v>
       </c>
@@ -3371,7 +3345,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B44" s="16">
         <v>43</v>
       </c>
@@ -3394,7 +3368,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B45" s="16">
         <v>44</v>
       </c>
@@ -3417,7 +3391,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B46" s="16">
         <v>45</v>
       </c>
@@ -3440,7 +3414,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B47" s="16">
         <v>46</v>
       </c>
@@ -3463,7 +3437,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B48" s="16">
         <v>47</v>
       </c>
@@ -3486,7 +3460,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B49" s="16">
         <v>48</v>
       </c>
@@ -3509,7 +3483,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B50" s="16">
         <v>49</v>
       </c>
@@ -3532,7 +3506,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B51" s="16">
         <v>50</v>
       </c>
@@ -3555,7 +3529,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B52" s="16">
         <v>51</v>
       </c>
@@ -3578,7 +3552,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B53" s="16">
         <v>52</v>
       </c>
@@ -3601,7 +3575,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B54" s="16">
         <v>53</v>
       </c>
@@ -3624,7 +3598,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B55" s="16">
         <v>54</v>
       </c>
@@ -3647,7 +3621,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B56" s="16">
         <v>55</v>
       </c>
@@ -3670,7 +3644,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B57" s="16">
         <v>56</v>
       </c>
@@ -3693,7 +3667,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B58" s="16">
         <v>57</v>
       </c>
@@ -3716,7 +3690,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B59" s="16">
         <v>58</v>
       </c>
@@ -3739,7 +3713,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B60" s="16">
         <v>59</v>
       </c>
@@ -3762,7 +3736,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B61" s="16">
         <v>60</v>
       </c>
@@ -3785,7 +3759,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B62" s="16">
         <v>61</v>
       </c>
@@ -3808,7 +3782,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B63" s="16">
         <v>62</v>
       </c>
@@ -3831,7 +3805,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B64" s="16">
         <v>63</v>
       </c>
@@ -3854,7 +3828,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B65" s="16">
         <v>64</v>
       </c>
@@ -3877,7 +3851,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B66" s="16">
         <v>65</v>
       </c>
@@ -3900,7 +3874,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B67" s="16">
         <v>66</v>
       </c>
@@ -3923,7 +3897,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B68" s="16">
         <v>67</v>
       </c>
@@ -3946,7 +3920,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B69" s="16">
         <v>68</v>
       </c>
@@ -3969,7 +3943,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B70" s="16">
         <v>69</v>
       </c>
@@ -3992,7 +3966,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B71" s="16">
         <v>70</v>
       </c>
@@ -4015,7 +3989,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B72" s="16">
         <v>71</v>
       </c>
@@ -4038,7 +4012,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B73" s="16">
         <v>72</v>
       </c>
@@ -4061,7 +4035,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B74" s="16">
         <v>73</v>
       </c>
@@ -4084,7 +4058,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B75" s="16">
         <v>74</v>
       </c>
@@ -4107,7 +4081,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B76" s="16">
         <v>75</v>
       </c>
@@ -4130,7 +4104,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B77" s="16">
         <v>76</v>
       </c>
@@ -4153,7 +4127,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B78" s="16">
         <v>77</v>
       </c>
@@ -4176,7 +4150,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B79" s="16">
         <v>78</v>
       </c>
@@ -4199,7 +4173,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B80" s="16">
         <v>79</v>
       </c>
@@ -4222,7 +4196,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B81" s="16">
         <v>80</v>
       </c>
@@ -4245,7 +4219,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B82" s="16">
         <v>81</v>
       </c>
@@ -4268,7 +4242,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B83" s="16">
         <v>82</v>
       </c>
@@ -4291,7 +4265,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B84" s="16">
         <v>83</v>
       </c>
@@ -4314,7 +4288,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B85" s="16">
         <v>84</v>
       </c>
@@ -4337,7 +4311,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B86" s="16">
         <v>85</v>
       </c>
@@ -4360,7 +4334,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B87" s="16">
         <v>86</v>
       </c>
@@ -4383,7 +4357,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B88" s="16">
         <v>87</v>
       </c>
@@ -4406,7 +4380,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B89" s="16">
         <v>88</v>
       </c>
@@ -4429,7 +4403,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B90" s="16">
         <v>89</v>
       </c>
@@ -4452,7 +4426,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B91" s="16">
         <v>90</v>
       </c>
@@ -4475,7 +4449,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B92" s="16">
         <v>91</v>
       </c>
@@ -4498,7 +4472,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B93" s="16">
         <v>92</v>
       </c>
@@ -4521,7 +4495,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B94" s="16">
         <v>93</v>
       </c>
@@ -4544,7 +4518,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B95" s="16">
         <v>94</v>
       </c>
@@ -4567,7 +4541,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B96" s="16">
         <v>95</v>
       </c>
@@ -4590,7 +4564,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B97" s="16">
         <v>96</v>
       </c>
@@ -4613,7 +4587,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B98" s="16">
         <v>97</v>
       </c>
@@ -4636,7 +4610,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B99" s="16">
         <v>98</v>
       </c>
@@ -4659,7 +4633,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B100" s="16">
         <v>99</v>
       </c>
@@ -4682,7 +4656,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B101" s="16">
         <v>100</v>
       </c>
@@ -4705,7 +4679,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B102" s="16">
         <v>101</v>
       </c>
@@ -4728,7 +4702,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B103" s="16">
         <v>102</v>
       </c>
@@ -4751,7 +4725,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B104" s="16">
         <v>103</v>
       </c>
@@ -4774,7 +4748,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B105" s="16">
         <v>104</v>
       </c>
@@ -4795,7 +4769,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B106" s="16">
         <v>105</v>
       </c>
@@ -4818,7 +4792,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="107" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B107" s="16">
         <v>106</v>
       </c>
@@ -4841,7 +4815,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B108" s="16">
         <v>107</v>
       </c>
@@ -4864,7 +4838,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="109" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B109" s="16">
         <v>108</v>
       </c>
@@ -4887,7 +4861,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B110" s="16">
         <v>109</v>
       </c>
@@ -4910,7 +4884,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B111" s="16">
         <v>110</v>
       </c>
@@ -4933,7 +4907,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B112" s="16">
         <v>111</v>
       </c>
@@ -4956,7 +4930,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B113" s="16">
         <v>112</v>
       </c>
@@ -4979,7 +4953,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B114" s="16">
         <v>113</v>
       </c>
@@ -5002,7 +4976,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B115" s="16">
         <v>114</v>
       </c>
@@ -5025,7 +4999,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B116" s="16">
         <v>115</v>
       </c>
@@ -5048,7 +5022,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B117" s="16">
         <v>116</v>
       </c>
@@ -5071,7 +5045,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B118" s="16">
         <v>117</v>
       </c>
@@ -5094,7 +5068,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B119" s="16">
         <v>118</v>
       </c>
@@ -5117,7 +5091,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B120" s="16">
         <v>119</v>
       </c>
@@ -5140,7 +5114,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B121" s="16">
         <v>120</v>
       </c>
@@ -5163,7 +5137,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B122" s="16">
         <v>121</v>
       </c>
@@ -5186,7 +5160,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B123" s="16">
         <v>122</v>
       </c>
@@ -5209,7 +5183,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B124" s="16">
         <v>123</v>
       </c>
@@ -5232,7 +5206,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B125" s="16">
         <v>124</v>
       </c>
@@ -5255,7 +5229,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B126" s="16">
         <v>125</v>
       </c>
@@ -5278,7 +5252,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B127" s="16">
         <v>126</v>
       </c>
@@ -5301,7 +5275,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B128" s="16">
         <v>127</v>
       </c>
@@ -5324,7 +5298,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B129" s="16">
         <v>128</v>
       </c>
@@ -5347,7 +5321,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B130" s="16">
         <v>129</v>
       </c>
@@ -5370,7 +5344,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B131" s="16">
         <v>130</v>
       </c>
@@ -5393,7 +5367,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B132" s="16">
         <v>131</v>
       </c>
@@ -5416,7 +5390,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B133" s="16">
         <v>132</v>
       </c>
@@ -5439,7 +5413,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B134" s="16">
         <v>133</v>
       </c>
@@ -5462,7 +5436,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B135" s="16">
         <v>134</v>
       </c>
@@ -5485,7 +5459,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B136" s="16">
         <v>135</v>
       </c>
@@ -5508,7 +5482,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B137" s="16">
         <v>136</v>
       </c>
@@ -5531,7 +5505,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B138" s="16">
         <v>137</v>
       </c>
@@ -5554,7 +5528,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B139" s="16">
         <v>138</v>
       </c>
@@ -5577,7 +5551,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B140" s="16">
         <v>139</v>
       </c>
@@ -5600,7 +5574,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B141" s="16">
         <v>140</v>
       </c>
@@ -5623,7 +5597,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B142" s="16">
         <v>141</v>
       </c>
@@ -5646,7 +5620,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B143" s="16">
         <v>142</v>
       </c>
@@ -5669,7 +5643,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B144" s="16">
         <v>143</v>
       </c>
@@ -5692,7 +5666,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="145" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B145" s="16">
         <v>144</v>
       </c>
@@ -5715,7 +5689,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="146" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B146" s="16">
         <v>145</v>
       </c>
@@ -5738,7 +5712,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="147" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B147" s="16">
         <v>146</v>
       </c>
@@ -5761,7 +5735,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="148" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B148" s="16">
         <v>147</v>
       </c>
@@ -5784,7 +5758,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="149" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B149" s="16">
         <v>148</v>
       </c>
@@ -5807,7 +5781,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B150" s="16">
         <v>149</v>
       </c>
@@ -5830,7 +5804,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="151" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B151" s="16">
         <v>150</v>
       </c>
@@ -5853,7 +5827,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="152" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B152" s="16">
         <v>151</v>
       </c>
@@ -5876,7 +5850,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="153" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B153" s="16">
         <v>152</v>
       </c>
@@ -5899,7 +5873,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B154" s="16">
         <v>153</v>
       </c>
@@ -5922,7 +5896,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="155" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B155" s="16">
         <v>154</v>
       </c>
@@ -5945,7 +5919,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B156" s="16">
         <v>155</v>
       </c>
@@ -5968,7 +5942,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B157" s="16">
         <v>156</v>
       </c>
@@ -5991,7 +5965,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B158" s="16">
         <v>157</v>
       </c>
@@ -6014,7 +5988,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="159" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B159" s="16">
         <v>158</v>
       </c>
@@ -6037,7 +6011,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="160" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B160" s="16">
         <v>159</v>
       </c>
@@ -6060,7 +6034,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="161" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B161" s="16">
         <v>160</v>
       </c>
@@ -6083,7 +6057,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="162" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B162" s="16">
         <v>161</v>
       </c>
@@ -6106,7 +6080,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="163" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B163" s="16">
         <v>162</v>
       </c>
@@ -6129,7 +6103,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="164" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B164" s="16">
         <v>163</v>
       </c>
@@ -6152,7 +6126,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="165" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B165" s="16">
         <v>164</v>
       </c>
@@ -6175,7 +6149,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="166" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B166" s="16">
         <v>165</v>
       </c>
@@ -6198,7 +6172,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="167" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B167" s="16">
         <v>166</v>
       </c>
@@ -6221,7 +6195,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B168" s="16">
         <v>167</v>
       </c>
@@ -6244,7 +6218,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="169" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B169" s="16">
         <v>168</v>
       </c>
@@ -6267,7 +6241,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B170" s="16">
         <v>169</v>
       </c>
@@ -6290,7 +6264,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="171" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B171" s="16">
         <v>170</v>
       </c>
@@ -6313,7 +6287,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="172" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B172" s="16">
         <v>171</v>
       </c>
@@ -6336,7 +6310,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="173" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B173" s="16">
         <v>172</v>
       </c>
@@ -6359,7 +6333,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="174" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B174" s="16">
         <v>173</v>
       </c>
@@ -6382,7 +6356,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B175" s="16">
         <v>174</v>
       </c>
@@ -6405,7 +6379,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="176" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B176" s="16">
         <v>175</v>
       </c>
@@ -6428,7 +6402,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="177" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B177" s="16">
         <v>176</v>
       </c>
@@ -6451,7 +6425,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="178" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B178" s="16">
         <v>177</v>
       </c>
@@ -6474,7 +6448,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="179" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B179" s="16">
         <v>178</v>
       </c>
@@ -6497,7 +6471,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="180" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B180" s="16">
         <v>179</v>
       </c>
@@ -6520,7 +6494,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="181" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B181" s="16">
         <v>180</v>
       </c>
@@ -6543,7 +6517,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="182" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B182" s="16">
         <v>181</v>
       </c>
@@ -6566,7 +6540,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="183" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B183" s="16">
         <v>182</v>
       </c>
@@ -6589,7 +6563,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="184" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B184" s="16">
         <v>183</v>
       </c>
@@ -6612,7 +6586,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="185" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B185" s="16">
         <v>184</v>
       </c>
@@ -6635,7 +6609,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="186" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B186" s="16">
         <v>185</v>
       </c>
@@ -6658,7 +6632,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="187" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B187" s="16">
         <v>186</v>
       </c>
@@ -6681,7 +6655,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="188" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B188" s="16">
         <v>187</v>
       </c>
@@ -6704,7 +6678,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="189" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B189" s="16">
         <v>188</v>
       </c>
@@ -6727,7 +6701,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="190" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B190" s="16">
         <v>189</v>
       </c>
@@ -6750,7 +6724,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="191" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B191" s="16">
         <v>190</v>
       </c>
@@ -6773,7 +6747,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="192" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B192" s="16">
         <v>191</v>
       </c>
@@ -6796,7 +6770,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="193" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B193" s="16">
         <v>192</v>
       </c>
@@ -6819,7 +6793,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="194" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B194" s="16">
         <v>193</v>
       </c>
@@ -6842,7 +6816,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="195" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B195" s="16">
         <v>194</v>
       </c>
@@ -6865,7 +6839,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="196" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B196" s="16">
         <v>195</v>
       </c>
@@ -6888,7 +6862,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="197" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B197" s="16">
         <v>196</v>
       </c>
@@ -6911,7 +6885,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="198" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B198" s="16">
         <v>197</v>
       </c>
@@ -6934,7 +6908,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="199" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B199" s="16">
         <v>198</v>
       </c>
@@ -6957,7 +6931,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="200" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B200" s="16">
         <v>199</v>
       </c>
@@ -6980,7 +6954,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="201" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B201" s="16">
         <v>200</v>
       </c>
@@ -7003,7 +6977,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="202" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B202" s="16">
         <v>201</v>
       </c>
@@ -7026,7 +7000,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="203" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B203" s="16">
         <v>202</v>
       </c>
@@ -7049,7 +7023,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="204" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B204" s="16">
         <v>203</v>
       </c>
@@ -7072,7 +7046,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="205" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B205" s="16">
         <v>204</v>
       </c>
@@ -7095,7 +7069,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="206" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B206" s="16">
         <v>205</v>
       </c>
@@ -7118,7 +7092,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="207" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B207" s="16">
         <v>206</v>
       </c>
@@ -7141,7 +7115,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="208" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B208" s="16">
         <v>207</v>
       </c>
@@ -7164,7 +7138,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="209" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
       <c r="B209" s="16">
         <v>208</v>
       </c>
@@ -7187,7 +7161,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="210" spans="2:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B210" s="18">
         <v>209</v>
       </c>
@@ -7210,7 +7184,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:8" ht="16.7" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B211" s="20"/>
       <c r="C211" s="21" t="s">
         <v>267</v>
@@ -7227,7 +7201,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:8" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="B212" s="16"/>
       <c r="C212" s="23" t="s">
         <v>268</v>
@@ -7242,7 +7216,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:8" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="B213" s="16"/>
       <c r="C213" s="23" t="s">
         <v>269</v>
@@ -7271,27 +7245,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.55" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="31"/>
-    <col min="2" max="2" width="19.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="87.08203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.9140625" style="31" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="31"/>
+    <col min="1" max="1" width="8.69921875" style="31"/>
+    <col min="2" max="2" width="19.69921875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="87.09765625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B1" s="42" t="s">
         <v>299</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="44"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>301</v>
       </c>
@@ -7302,7 +7274,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B3" s="32" t="s">
         <v>275</v>
       </c>
@@ -7311,7 +7283,7 @@
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B4" s="35" t="s">
         <v>277</v>
       </c>
@@ -7320,7 +7292,7 @@
       </c>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B5" s="35" t="s">
         <v>279</v>
       </c>
@@ -7329,7 +7301,7 @@
       </c>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B6" s="35" t="s">
         <v>281</v>
       </c>
@@ -7338,7 +7310,7 @@
       </c>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B7" s="35" t="s">
         <v>283</v>
       </c>
@@ -7347,7 +7319,7 @@
       </c>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B8" s="35" t="s">
         <v>285</v>
       </c>
@@ -7356,7 +7328,7 @@
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B9" s="35" t="s">
         <v>287</v>
       </c>
@@ -7365,7 +7337,7 @@
       </c>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B10" s="35" t="s">
         <v>289</v>
       </c>
@@ -7374,7 +7346,7 @@
       </c>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B11" s="35" t="s">
         <v>291</v>
       </c>
@@ -7383,7 +7355,7 @@
       </c>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B12" s="35" t="s">
         <v>293</v>
       </c>
@@ -7392,7 +7364,7 @@
       </c>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B13" s="35" t="s">
         <v>295</v>
       </c>
@@ -7401,7 +7373,7 @@
       </c>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
       <c r="B14" s="38" t="s">
         <v>297</v>
       </c>
@@ -7428,22 +7400,22 @@
       <selection activeCell="J15" sqref="J15"/>
       <selection pane="topRight" activeCell="J15" sqref="J15"/>
       <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.55" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="5.08203125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.09765625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.5" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="21.08203125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9" style="26" customWidth="1"/>
     <col min="8" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="16.149999999999999" x14ac:dyDescent="0.25">
       <c r="B1" s="47" t="s">
         <v>439</v>
       </c>
@@ -7455,7 +7427,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" ht="16.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="48" t="s">
         <v>305</v>
       </c>
@@ -7464,7 +7436,7 @@
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
     </row>
-    <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:7" ht="16.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
         <v>304</v>
       </c>
@@ -7481,7 +7453,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="B4" s="45" t="s">
         <v>441</v>
       </c>
@@ -7490,7 +7462,7 @@
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
         <v>419</v>
@@ -7501,7 +7473,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="B6" s="45" t="s">
         <v>435</v>
       </c>
@@ -7510,7 +7482,7 @@
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="27"/>
       <c r="C7" s="16" t="s">
         <v>420</v>
@@ -7521,7 +7493,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="27"/>
       <c r="C8" s="16" t="s">
         <v>421</v>
@@ -7532,7 +7504,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="B9" s="45" t="s">
         <v>438</v>
       </c>
@@ -7541,7 +7513,7 @@
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="27"/>
       <c r="C10" s="16" t="s">
         <v>307</v>
@@ -7552,7 +7524,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="27"/>
       <c r="C11" s="16"/>
       <c r="D11" s="14" t="s">
@@ -7561,7 +7533,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="27"/>
       <c r="C12" s="16"/>
       <c r="D12" s="14" t="s">
@@ -7570,7 +7542,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="27"/>
       <c r="C13" s="16"/>
       <c r="D13" s="14" t="s">
@@ -7579,7 +7551,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="27"/>
       <c r="C14" s="16"/>
       <c r="D14" s="14" t="s">
@@ -7588,7 +7560,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="27"/>
       <c r="C15" s="16"/>
       <c r="D15" s="14" t="s">
@@ -7597,7 +7569,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="27"/>
       <c r="C16" s="16"/>
       <c r="D16" s="14" t="s">
@@ -7606,7 +7578,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="27"/>
       <c r="C17" s="16"/>
       <c r="D17" s="14" t="s">
@@ -7615,7 +7587,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="27"/>
       <c r="C18" s="16"/>
       <c r="D18" s="14" t="s">
@@ -7624,7 +7596,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
       <c r="C19" s="16"/>
       <c r="D19" s="14" t="s">
@@ -7633,7 +7605,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
       <c r="C20" s="16"/>
       <c r="D20" s="14" t="s">
@@ -7642,7 +7614,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="27"/>
       <c r="C21" s="16"/>
       <c r="D21" s="14" t="s">
@@ -7651,7 +7623,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="27"/>
       <c r="C22" s="16"/>
       <c r="D22" s="14" t="s">
@@ -7660,7 +7632,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="27"/>
       <c r="C23" s="16"/>
       <c r="D23" s="14" t="s">
@@ -7669,7 +7641,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="27"/>
       <c r="C24" s="16" t="s">
         <v>329</v>
@@ -7682,7 +7654,7 @@
       </c>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="27"/>
       <c r="C25" s="16" t="s">
         <v>321</v>
@@ -7695,7 +7667,7 @@
       </c>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="27"/>
       <c r="C26" s="16"/>
       <c r="D26" s="5" t="s">
@@ -7704,7 +7676,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="27"/>
       <c r="C27" s="16"/>
       <c r="D27" s="14" t="s">
@@ -7713,7 +7685,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="27"/>
       <c r="C28" s="16"/>
       <c r="D28" s="14" t="s">
@@ -7722,7 +7694,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="27"/>
       <c r="C29" s="16"/>
       <c r="D29" s="14" t="s">
@@ -7731,7 +7703,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="27"/>
       <c r="C30" s="16"/>
       <c r="D30" s="14" t="s">
@@ -7740,7 +7712,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="27"/>
       <c r="C31" s="16" t="s">
         <v>308</v>
@@ -7751,7 +7723,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="27"/>
       <c r="C32" s="16"/>
       <c r="D32" s="14" t="s">
@@ -7760,7 +7732,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="27"/>
       <c r="C33" s="16"/>
       <c r="D33" s="14" t="s">
@@ -7771,7 +7743,7 @@
       <c r="I33" s="40"/>
       <c r="J33" s="40"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="27"/>
       <c r="C34" s="16"/>
       <c r="D34" s="14" t="s">
@@ -7782,7 +7754,7 @@
       <c r="I34" s="40"/>
       <c r="J34" s="40"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="27"/>
       <c r="C35" s="16"/>
       <c r="D35" s="14" t="s">
@@ -7793,7 +7765,7 @@
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
       <c r="C36" s="16"/>
       <c r="D36" s="14" t="s">
@@ -7804,7 +7776,7 @@
       <c r="I36" s="40"/>
       <c r="J36" s="41"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
       <c r="C37" s="16"/>
       <c r="D37" s="14" t="s">
@@ -7815,7 +7787,7 @@
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="27"/>
       <c r="C38" s="16" t="s">
         <v>309</v>
@@ -7828,7 +7800,7 @@
       <c r="I38" s="40"/>
       <c r="J38" s="40"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="27"/>
       <c r="C39" s="16" t="s">
         <v>358</v>
@@ -7843,7 +7815,7 @@
       <c r="I39" s="40"/>
       <c r="J39" s="40"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="27"/>
       <c r="C40" s="16"/>
       <c r="D40" s="14" t="s">
@@ -7854,7 +7826,7 @@
       <c r="I40" s="40"/>
       <c r="J40" s="40"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="27"/>
       <c r="C41" s="16"/>
       <c r="D41" s="14" t="s">
@@ -7865,7 +7837,7 @@
       <c r="I41" s="40"/>
       <c r="J41" s="41"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="27"/>
       <c r="C42" s="16"/>
       <c r="D42" s="14" t="s">
@@ -7876,7 +7848,7 @@
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="14" t="s">
@@ -7887,7 +7859,7 @@
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="27"/>
       <c r="C44" s="28"/>
       <c r="D44" s="14" t="s">
@@ -7896,7 +7868,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="14" t="s">
@@ -7905,7 +7877,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="27"/>
       <c r="C46" s="28"/>
       <c r="D46" s="14" t="s">
@@ -7914,7 +7886,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
       <c r="D47" s="14" t="s">
@@ -7923,7 +7895,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="27"/>
       <c r="C48" s="28"/>
       <c r="D48" s="14" t="s">
@@ -7932,7 +7904,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="28"/>
       <c r="C49" s="16" t="s">
         <v>359</v>
@@ -7945,7 +7917,7 @@
       </c>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
       <c r="D50" s="4" t="s">
@@ -7954,7 +7926,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="2:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:6" ht="15.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
       <c r="D51" s="4" t="s">
@@ -7963,7 +7935,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
       <c r="D52" s="4" t="s">
@@ -7972,7 +7944,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
       <c r="D53" s="4" t="s">
@@ -7981,7 +7953,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
       <c r="D54" s="4" t="s">
@@ -7990,7 +7962,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="4" t="s">
@@ -7999,7 +7971,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
       <c r="D56" s="4" t="s">
@@ -8008,7 +7980,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
       <c r="D57" s="4" t="s">
@@ -8017,7 +7989,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="4" t="s">
@@ -8026,7 +7998,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B59" s="10"/>
       <c r="C59" s="16" t="s">
         <v>310</v>
@@ -8037,7 +8009,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="4" t="s">
@@ -8046,7 +8018,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="4" t="s">
@@ -8055,7 +8027,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="3" t="s">
@@ -8064,7 +8036,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="12"/>
     </row>
-    <row r="63" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="4" t="s">
@@ -8073,7 +8045,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
       <c r="C64" s="28"/>
       <c r="D64" s="14" t="s">
@@ -8082,7 +8054,7 @@
       <c r="E64" s="14"/>
       <c r="F64" s="28"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="14"/>
       <c r="C65" s="28"/>
       <c r="D65" s="14" t="s">
@@ -8091,7 +8063,7 @@
       <c r="E65" s="14"/>
       <c r="F65" s="28"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
       <c r="C66" s="28"/>
       <c r="D66" s="14" t="s">
@@ -8100,7 +8072,7 @@
       <c r="E66" s="14"/>
       <c r="F66" s="28"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="14"/>
       <c r="C67" s="28"/>
       <c r="D67" s="14" t="s">
@@ -8109,7 +8081,7 @@
       <c r="E67" s="14"/>
       <c r="F67" s="28"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="14"/>
       <c r="C68" s="28"/>
       <c r="D68" s="14" t="s">
@@ -8118,7 +8090,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="28"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="14"/>
       <c r="C69" s="16" t="s">
         <v>311</v>
@@ -8129,7 +8101,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="28"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="14"/>
       <c r="C70" s="28"/>
       <c r="D70" s="14" t="s">
@@ -8138,7 +8110,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="28"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="14"/>
       <c r="C71" s="28"/>
       <c r="D71" s="14" t="s">
@@ -8147,7 +8119,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="28"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="14"/>
       <c r="C72" s="28"/>
       <c r="D72" s="14" t="s">
@@ -8156,7 +8128,7 @@
       <c r="E72" s="14"/>
       <c r="F72" s="28"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="14"/>
       <c r="C73" s="28"/>
       <c r="D73" s="14" t="s">
@@ -8165,7 +8137,7 @@
       <c r="E73" s="14"/>
       <c r="F73" s="28"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="14"/>
       <c r="C74" s="28"/>
       <c r="D74" s="14" t="s">
@@ -8174,7 +8146,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="28"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="14"/>
       <c r="C75" s="28"/>
       <c r="D75" s="14" t="s">
@@ -8183,7 +8155,7 @@
       <c r="E75" s="14"/>
       <c r="F75" s="28"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="14"/>
       <c r="C76" s="28"/>
       <c r="D76" s="14" t="s">
@@ -8192,7 +8164,7 @@
       <c r="E76" s="14"/>
       <c r="F76" s="28"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="14"/>
       <c r="C77" s="28"/>
       <c r="D77" s="14" t="s">
@@ -8201,7 +8173,7 @@
       <c r="E77" s="14"/>
       <c r="F77" s="28"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="14"/>
       <c r="C78" s="28"/>
       <c r="D78" s="14" t="s">
@@ -8210,7 +8182,7 @@
       <c r="E78" s="14"/>
       <c r="F78" s="28"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="14"/>
       <c r="C79" s="28"/>
       <c r="D79" s="14" t="s">
@@ -8219,7 +8191,7 @@
       <c r="E79" s="14"/>
       <c r="F79" s="28"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="14"/>
       <c r="C80" s="28"/>
       <c r="D80" s="14" t="s">
@@ -8228,7 +8200,7 @@
       <c r="E80" s="14"/>
       <c r="F80" s="28"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="14"/>
       <c r="C81" s="28"/>
       <c r="D81" s="14" t="s">
@@ -8237,7 +8209,7 @@
       <c r="E81" s="14"/>
       <c r="F81" s="28"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="14"/>
       <c r="C82" s="28"/>
       <c r="D82" s="14" t="s">
@@ -8246,7 +8218,7 @@
       <c r="E82" s="14"/>
       <c r="F82" s="28"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="14"/>
       <c r="C83" s="28"/>
       <c r="D83" s="14" t="s">
@@ -8255,7 +8227,7 @@
       <c r="E83" s="14"/>
       <c r="F83" s="28"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="14"/>
       <c r="C84" s="28"/>
       <c r="D84" s="14" t="s">
@@ -8264,7 +8236,7 @@
       <c r="E84" s="14"/>
       <c r="F84" s="28"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="14"/>
       <c r="C85" s="28"/>
       <c r="D85" s="14" t="s">
@@ -8273,7 +8245,7 @@
       <c r="E85" s="14"/>
       <c r="F85" s="28"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="14"/>
       <c r="C86" s="28"/>
       <c r="D86" s="14" t="s">
@@ -8282,7 +8254,7 @@
       <c r="E86" s="14"/>
       <c r="F86" s="28"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="14"/>
       <c r="C87" s="28"/>
       <c r="D87" s="14" t="s">
@@ -8291,7 +8263,7 @@
       <c r="E87" s="14"/>
       <c r="F87" s="28"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="14"/>
       <c r="C88" s="28"/>
       <c r="D88" s="14" t="s">
@@ -8300,7 +8272,7 @@
       <c r="E88" s="14"/>
       <c r="F88" s="28"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="14"/>
       <c r="C89" s="28"/>
       <c r="D89" s="14" t="s">
@@ -8309,7 +8281,7 @@
       <c r="E89" s="14"/>
       <c r="F89" s="28"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
       <c r="C90" s="28"/>
       <c r="D90" s="14" t="s">
@@ -8318,7 +8290,7 @@
       <c r="E90" s="14"/>
       <c r="F90" s="28"/>
     </row>
-    <row r="91" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:6" ht="31.1" x14ac:dyDescent="0.25">
       <c r="B91" s="14"/>
       <c r="C91" s="16" t="s">
         <v>404</v>
@@ -8331,7 +8303,7 @@
       </c>
       <c r="F91" s="28"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="14"/>
       <c r="C92" s="28"/>
       <c r="D92" s="14" t="s">
@@ -8340,7 +8312,7 @@
       <c r="E92" s="14"/>
       <c r="F92" s="28"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="14"/>
       <c r="C93" s="28"/>
       <c r="D93" s="14" t="s">
@@ -8349,7 +8321,7 @@
       <c r="E93" s="14"/>
       <c r="F93" s="28"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="14"/>
       <c r="C94" s="28"/>
       <c r="D94" s="14" t="s">
@@ -8358,7 +8330,7 @@
       <c r="E94" s="14"/>
       <c r="F94" s="28"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="14"/>
       <c r="C95" s="28"/>
       <c r="D95" s="14" t="s">
@@ -8367,7 +8339,7 @@
       <c r="E95" s="14"/>
       <c r="F95" s="28"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="14"/>
       <c r="C96" s="28"/>
       <c r="D96" s="14" t="s">
@@ -8376,7 +8348,7 @@
       <c r="E96" s="14"/>
       <c r="F96" s="28"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="14"/>
       <c r="C97" s="28"/>
       <c r="D97" s="14" t="s">
@@ -8385,7 +8357,7 @@
       <c r="E97" s="14"/>
       <c r="F97" s="28"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="14"/>
       <c r="C98" s="28"/>
       <c r="D98" s="14" t="s">
@@ -8394,7 +8366,7 @@
       <c r="E98" s="14"/>
       <c r="F98" s="28"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="14"/>
       <c r="C99" s="28"/>
       <c r="D99" s="14" t="s">
@@ -8403,7 +8375,7 @@
       <c r="E99" s="14"/>
       <c r="F99" s="28"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="14"/>
       <c r="C100" s="28"/>
       <c r="D100" s="14" t="s">
@@ -8412,7 +8384,7 @@
       <c r="E100" s="14"/>
       <c r="F100" s="28"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="14"/>
       <c r="C101" s="28"/>
       <c r="D101" s="14" t="s">
@@ -8421,7 +8393,7 @@
       <c r="E101" s="14"/>
       <c r="F101" s="28"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="14"/>
       <c r="C102" s="28"/>
       <c r="D102" s="14" t="s">
@@ -8430,7 +8402,7 @@
       <c r="E102" s="14"/>
       <c r="F102" s="28"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="14"/>
       <c r="C103" s="28"/>
       <c r="D103" s="14" t="s">
@@ -8439,7 +8411,7 @@
       <c r="E103" s="14"/>
       <c r="F103" s="28"/>
     </row>
-    <row r="104" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:6" ht="31.1" x14ac:dyDescent="0.25">
       <c r="B104" s="14"/>
       <c r="C104" s="28"/>
       <c r="D104" s="39" t="s">
@@ -8448,7 +8420,7 @@
       <c r="E104" s="14"/>
       <c r="F104" s="28"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="14"/>
       <c r="C105" s="28" t="s">
         <v>405</v>
@@ -8461,7 +8433,7 @@
       </c>
       <c r="F105" s="28"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="14"/>
       <c r="C106" s="28"/>
       <c r="D106" s="14" t="s">
@@ -8470,7 +8442,7 @@
       <c r="E106" s="14"/>
       <c r="F106" s="28"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="14"/>
       <c r="C107" s="28"/>
       <c r="D107" s="14" t="s">
@@ -8479,7 +8451,7 @@
       <c r="E107" s="14"/>
       <c r="F107" s="28"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="14"/>
       <c r="C108" s="28"/>
       <c r="D108" s="14" t="s">
@@ -8488,7 +8460,7 @@
       <c r="E108" s="14"/>
       <c r="F108" s="28"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="14"/>
       <c r="C109" s="28"/>
       <c r="D109" s="14" t="s">
@@ -8497,7 +8469,7 @@
       <c r="E109" s="14"/>
       <c r="F109" s="28"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="14"/>
       <c r="C110" s="28"/>
       <c r="D110" s="14" t="s">
@@ -8506,7 +8478,7 @@
       <c r="E110" s="14"/>
       <c r="F110" s="28"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="14"/>
       <c r="C111" s="28" t="s">
         <v>410</v>
@@ -8517,7 +8489,7 @@
       <c r="E111" s="14"/>
       <c r="F111" s="28"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="14"/>
       <c r="C112" s="28"/>
       <c r="D112" s="14" t="s">
@@ -8526,7 +8498,7 @@
       <c r="E112" s="14"/>
       <c r="F112" s="28"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="14"/>
       <c r="C113" s="28"/>
       <c r="D113" s="14" t="s">
@@ -8535,7 +8507,7 @@
       <c r="E113" s="14"/>
       <c r="F113" s="28"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="14"/>
       <c r="C114" s="28"/>
       <c r="D114" s="14" t="s">
@@ -8546,7 +8518,7 @@
       </c>
       <c r="F114" s="28"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="14"/>
       <c r="C115" s="28"/>
       <c r="D115" s="14" t="s">
@@ -8555,7 +8527,7 @@
       <c r="E115" s="14"/>
       <c r="F115" s="28"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:6" ht="16.149999999999999" x14ac:dyDescent="0.4">
       <c r="B116" s="45" t="s">
         <v>437</v>
       </c>
@@ -8564,7 +8536,7 @@
       <c r="E116" s="46"/>
       <c r="F116" s="46"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="14"/>
       <c r="C117" s="28" t="s">
         <v>425</v>
@@ -8575,7 +8547,7 @@
       <c r="E117" s="14"/>
       <c r="F117" s="28"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="14"/>
       <c r="C118" s="28" t="s">
         <v>427</v>
@@ -8586,7 +8558,7 @@
       <c r="E118" s="14"/>
       <c r="F118" s="28"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="14"/>
       <c r="C119" s="28" t="s">
         <v>429</v>
@@ -8597,7 +8569,7 @@
       <c r="E119" s="14"/>
       <c r="F119" s="28"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="14"/>
       <c r="C120" s="28" t="s">
         <v>431</v>
@@ -8608,7 +8580,7 @@
       <c r="E120" s="14"/>
       <c r="F120" s="28"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="14"/>
       <c r="C121" s="28" t="s">
         <v>433</v>
@@ -8619,462 +8591,462 @@
       <c r="E121" s="14"/>
       <c r="F121" s="28"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="14"/>
       <c r="C122" s="28"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
       <c r="F122" s="28"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="14"/>
       <c r="C123" s="28"/>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
       <c r="F123" s="28"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="14"/>
       <c r="C124" s="28"/>
       <c r="D124" s="14"/>
       <c r="E124" s="14"/>
       <c r="F124" s="28"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="14"/>
       <c r="C125" s="28"/>
       <c r="D125" s="14"/>
       <c r="E125" s="14"/>
       <c r="F125" s="28"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="14"/>
       <c r="C126" s="28"/>
       <c r="D126" s="14"/>
       <c r="E126" s="14"/>
       <c r="F126" s="28"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="14"/>
       <c r="C127" s="28"/>
       <c r="D127" s="14"/>
       <c r="E127" s="14"/>
       <c r="F127" s="28"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="14"/>
       <c r="C128" s="28"/>
       <c r="D128" s="14"/>
       <c r="E128" s="14"/>
       <c r="F128" s="28"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="14"/>
       <c r="C129" s="28"/>
       <c r="D129" s="14"/>
       <c r="E129" s="14"/>
       <c r="F129" s="28"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="14"/>
       <c r="C130" s="28"/>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
       <c r="F130" s="28"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="14"/>
       <c r="C131" s="28"/>
       <c r="D131" s="14"/>
       <c r="E131" s="14"/>
       <c r="F131" s="28"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="14"/>
       <c r="C132" s="28"/>
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
       <c r="F132" s="28"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="14"/>
       <c r="C133" s="28"/>
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
       <c r="F133" s="28"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="14"/>
       <c r="C134" s="28"/>
       <c r="D134" s="14"/>
       <c r="E134" s="14"/>
       <c r="F134" s="28"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="14"/>
       <c r="C135" s="28"/>
       <c r="D135" s="14"/>
       <c r="E135" s="14"/>
       <c r="F135" s="28"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="14"/>
       <c r="C136" s="28"/>
       <c r="D136" s="14"/>
       <c r="E136" s="14"/>
       <c r="F136" s="28"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="14"/>
       <c r="C137" s="28"/>
       <c r="D137" s="14"/>
       <c r="E137" s="14"/>
       <c r="F137" s="28"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="14"/>
       <c r="C138" s="28"/>
       <c r="D138" s="14"/>
       <c r="E138" s="14"/>
       <c r="F138" s="28"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="14"/>
       <c r="C139" s="28"/>
       <c r="D139" s="14"/>
       <c r="E139" s="14"/>
       <c r="F139" s="28"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="14"/>
       <c r="C140" s="28"/>
       <c r="D140" s="14"/>
       <c r="E140" s="14"/>
       <c r="F140" s="28"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="14"/>
       <c r="C141" s="28"/>
       <c r="D141" s="14"/>
       <c r="E141" s="14"/>
       <c r="F141" s="28"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="14"/>
       <c r="C142" s="28"/>
       <c r="D142" s="14"/>
       <c r="E142" s="14"/>
       <c r="F142" s="28"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="14"/>
       <c r="C143" s="28"/>
       <c r="D143" s="14"/>
       <c r="E143" s="14"/>
       <c r="F143" s="28"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="14"/>
       <c r="C144" s="28"/>
       <c r="D144" s="14"/>
       <c r="E144" s="14"/>
       <c r="F144" s="28"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="14"/>
       <c r="C145" s="28"/>
       <c r="D145" s="14"/>
       <c r="E145" s="14"/>
       <c r="F145" s="28"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="14"/>
       <c r="C146" s="28"/>
       <c r="D146" s="14"/>
       <c r="E146" s="14"/>
       <c r="F146" s="28"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="14"/>
       <c r="C147" s="28"/>
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
       <c r="F147" s="28"/>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="14"/>
       <c r="C148" s="28"/>
       <c r="D148" s="14"/>
       <c r="E148" s="14"/>
       <c r="F148" s="28"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="14"/>
       <c r="C149" s="28"/>
       <c r="D149" s="14"/>
       <c r="E149" s="14"/>
       <c r="F149" s="28"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="14"/>
       <c r="C150" s="28"/>
       <c r="D150" s="14"/>
       <c r="E150" s="14"/>
       <c r="F150" s="28"/>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="14"/>
       <c r="C151" s="28"/>
       <c r="D151" s="14"/>
       <c r="E151" s="14"/>
       <c r="F151" s="28"/>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="14"/>
       <c r="C152" s="28"/>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
       <c r="F152" s="28"/>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="14"/>
       <c r="C153" s="28"/>
       <c r="D153" s="14"/>
       <c r="E153" s="14"/>
       <c r="F153" s="28"/>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="14"/>
       <c r="C154" s="28"/>
       <c r="D154" s="14"/>
       <c r="E154" s="14"/>
       <c r="F154" s="28"/>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="14"/>
       <c r="C155" s="28"/>
       <c r="D155" s="14"/>
       <c r="E155" s="14"/>
       <c r="F155" s="28"/>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="14"/>
       <c r="C156" s="28"/>
       <c r="D156" s="14"/>
       <c r="E156" s="14"/>
       <c r="F156" s="28"/>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="14"/>
       <c r="C157" s="28"/>
       <c r="D157" s="14"/>
       <c r="E157" s="14"/>
       <c r="F157" s="28"/>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="14"/>
       <c r="C158" s="28"/>
       <c r="D158" s="14"/>
       <c r="E158" s="14"/>
       <c r="F158" s="28"/>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="14"/>
       <c r="C159" s="28"/>
       <c r="D159" s="14"/>
       <c r="E159" s="14"/>
       <c r="F159" s="28"/>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="14"/>
       <c r="C160" s="28"/>
       <c r="D160" s="14"/>
       <c r="E160" s="14"/>
       <c r="F160" s="28"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="14"/>
       <c r="C161" s="28"/>
       <c r="D161" s="14"/>
       <c r="E161" s="14"/>
       <c r="F161" s="28"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="14"/>
       <c r="C162" s="28"/>
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
       <c r="F162" s="28"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="14"/>
       <c r="C163" s="28"/>
       <c r="D163" s="14"/>
       <c r="E163" s="14"/>
       <c r="F163" s="28"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="14"/>
       <c r="C164" s="28"/>
       <c r="D164" s="14"/>
       <c r="E164" s="14"/>
       <c r="F164" s="28"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="14"/>
       <c r="C165" s="28"/>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
       <c r="F165" s="28"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="14"/>
       <c r="C166" s="28"/>
       <c r="D166" s="14"/>
       <c r="E166" s="14"/>
       <c r="F166" s="28"/>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="14"/>
       <c r="C167" s="28"/>
       <c r="D167" s="14"/>
       <c r="E167" s="14"/>
       <c r="F167" s="28"/>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="14"/>
       <c r="C168" s="28"/>
       <c r="D168" s="14"/>
       <c r="E168" s="14"/>
       <c r="F168" s="28"/>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="14"/>
       <c r="C169" s="28"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
       <c r="F169" s="28"/>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="14"/>
       <c r="C170" s="28"/>
       <c r="D170" s="14"/>
       <c r="E170" s="14"/>
       <c r="F170" s="28"/>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="14"/>
       <c r="C171" s="28"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
       <c r="F171" s="28"/>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="14"/>
       <c r="C172" s="28"/>
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
       <c r="F172" s="28"/>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="14"/>
       <c r="C173" s="28"/>
       <c r="D173" s="14"/>
       <c r="E173" s="14"/>
       <c r="F173" s="28"/>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="14"/>
       <c r="C174" s="28"/>
       <c r="D174" s="14"/>
       <c r="E174" s="14"/>
       <c r="F174" s="28"/>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="14"/>
       <c r="C175" s="28"/>
       <c r="D175" s="14"/>
       <c r="E175" s="14"/>
       <c r="F175" s="28"/>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="14"/>
       <c r="C176" s="28"/>
       <c r="D176" s="14"/>
       <c r="E176" s="14"/>
       <c r="F176" s="28"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="14"/>
       <c r="C177" s="28"/>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
       <c r="F177" s="28"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="14"/>
       <c r="C178" s="28"/>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
       <c r="F178" s="28"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="14"/>
       <c r="C179" s="28"/>
       <c r="D179" s="14"/>
       <c r="E179" s="14"/>
       <c r="F179" s="28"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="14"/>
       <c r="C180" s="28"/>
       <c r="D180" s="14"/>
       <c r="E180" s="14"/>
       <c r="F180" s="28"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="14"/>
       <c r="C181" s="28"/>
       <c r="D181" s="14"/>
       <c r="E181" s="14"/>
       <c r="F181" s="28"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="14"/>
       <c r="C182" s="28"/>
       <c r="D182" s="14"/>
       <c r="E182" s="14"/>
       <c r="F182" s="28"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="14"/>
       <c r="C183" s="28"/>
       <c r="D183" s="14"/>
       <c r="E183" s="14"/>
       <c r="F183" s="28"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="14"/>
       <c r="C184" s="28"/>
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
       <c r="F184" s="28"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="14"/>
       <c r="C185" s="28"/>
       <c r="D185" s="14"/>
       <c r="E185" s="14"/>
       <c r="F185" s="28"/>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="14"/>
       <c r="C186" s="28"/>
       <c r="D186" s="14"/>
       <c r="E186" s="14"/>
       <c r="F186" s="28"/>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="14"/>
       <c r="C187" s="28"/>
       <c r="D187" s="14"/>
@@ -9095,26 +9067,69 @@
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.74" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+  <dimension ref="C3:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="17"/>
-    <col min="4" max="4" width="12.58203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.4140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="13" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="17"/>
+    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.55" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="8.69921875" style="17"/>
+    <col min="4" max="4" width="12.59765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.3984375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="13" style="17" customWidth="1"/>
+    <col min="7" max="7" width="8.69921875" style="17"/>
+    <col min="8" max="9" width="9.09765625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="16.7" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="7" t="s">
         <v>304</v>
       </c>
@@ -9133,8 +9148,14 @@
       <c r="G2" s="8" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C3" s="17" t="s">
         <v>452</v>
       </c>
@@ -9145,7 +9166,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C4" s="17" t="s">
         <v>452</v>
       </c>
@@ -9156,7 +9177,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C5" s="17" t="s">
         <v>452</v>
       </c>
@@ -9167,7 +9188,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C6" s="17" t="s">
         <v>452</v>
       </c>
@@ -9178,7 +9199,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C7" s="17" t="s">
         <v>452</v>
       </c>
@@ -9189,7 +9210,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C8" s="17" t="s">
         <v>452</v>
       </c>
@@ -9200,7 +9221,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C9" s="17" t="s">
         <v>452</v>
       </c>
@@ -9211,7 +9232,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C10" s="17" t="s">
         <v>452</v>
       </c>

--- a/03 绩效报告/丽泽项目代码学习进度.xlsx
+++ b/03 绩效报告/丽泽项目代码学习进度.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19204" windowHeight="8168"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170"/>
   </bookViews>
   <sheets>
     <sheet name="代码学习进度" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="480">
   <si>
     <t>（一）基础功能</t>
   </si>
@@ -1417,10 +1417,6 @@
   </si>
   <si>
     <t>员工管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业信息增、删、改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1578,15 +1574,99 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>企业一览</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业详细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业员工列表 里增加搜索功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能修改：对 企业名称、成立日期 进行正序、倒序排序；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>代码环境搭建</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>功能点修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流修改</t>
+    <t>推荐管理 cms后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站配置 cms后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作票模板 server后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理 server后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品放入园区流程 APP+ server后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>园区介绍 APP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容管理 cms后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐模型 cms后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mongoDB表设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容模型 cms后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMS留言评论 server后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员 server后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒体库管理 cms后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容分类 cms后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息管理 server后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉建议 APP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页轮播屏 APP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业管理 server后台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>milestone活动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1865,7 +1945,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1988,6 +2068,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - 着色 1" xfId="2" builtinId="31"/>
@@ -2084,7 +2165,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2341,22 +2422,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4140625" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16.149999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>262</v>
       </c>
@@ -2379,7 +2460,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B2" s="16">
         <v>1</v>
       </c>
@@ -2402,7 +2483,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B3" s="16">
         <v>2</v>
       </c>
@@ -2425,7 +2506,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B4" s="16">
         <v>3</v>
       </c>
@@ -2448,7 +2529,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B5" s="16">
         <v>4</v>
       </c>
@@ -2471,7 +2552,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B6" s="16">
         <v>5</v>
       </c>
@@ -2494,7 +2575,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B7" s="16">
         <v>6</v>
       </c>
@@ -2517,7 +2598,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B8" s="16">
         <v>7</v>
       </c>
@@ -2540,7 +2621,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B9" s="16">
         <v>8</v>
       </c>
@@ -2563,7 +2644,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B10" s="16">
         <v>9</v>
       </c>
@@ -2586,7 +2667,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B11" s="16">
         <v>10</v>
       </c>
@@ -2609,7 +2690,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B12" s="16">
         <v>11</v>
       </c>
@@ -2632,7 +2713,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B13" s="16">
         <v>12</v>
       </c>
@@ -2655,7 +2736,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B14" s="16">
         <v>13</v>
       </c>
@@ -2678,7 +2759,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B15" s="16">
         <v>14</v>
       </c>
@@ -2701,7 +2782,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B16" s="16">
         <v>15</v>
       </c>
@@ -2724,7 +2805,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B17" s="16">
         <v>16</v>
       </c>
@@ -2747,7 +2828,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B18" s="16">
         <v>17</v>
       </c>
@@ -2770,7 +2851,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B19" s="16">
         <v>18</v>
       </c>
@@ -2793,7 +2874,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B20" s="16">
         <v>19</v>
       </c>
@@ -2816,7 +2897,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B21" s="16">
         <v>20</v>
       </c>
@@ -2839,7 +2920,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B22" s="16">
         <v>21</v>
       </c>
@@ -2862,7 +2943,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B23" s="16">
         <v>22</v>
       </c>
@@ -2885,7 +2966,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B24" s="16">
         <v>23</v>
       </c>
@@ -2908,7 +2989,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B25" s="16">
         <v>24</v>
       </c>
@@ -2931,7 +3012,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B26" s="16">
         <v>25</v>
       </c>
@@ -2954,7 +3035,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B27" s="16">
         <v>26</v>
       </c>
@@ -2977,7 +3058,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B28" s="16">
         <v>27</v>
       </c>
@@ -3000,7 +3081,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B29" s="16">
         <v>28</v>
       </c>
@@ -3023,7 +3104,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B30" s="16">
         <v>29</v>
       </c>
@@ -3046,7 +3127,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B31" s="16">
         <v>30</v>
       </c>
@@ -3069,7 +3150,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B32" s="16">
         <v>31</v>
       </c>
@@ -3092,7 +3173,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B33" s="16">
         <v>32</v>
       </c>
@@ -3115,7 +3196,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B34" s="16">
         <v>33</v>
       </c>
@@ -3138,7 +3219,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B35" s="16">
         <v>34</v>
       </c>
@@ -3161,7 +3242,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B36" s="16">
         <v>35</v>
       </c>
@@ -3184,7 +3265,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B37" s="16">
         <v>36</v>
       </c>
@@ -3207,7 +3288,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B38" s="16">
         <v>37</v>
       </c>
@@ -3230,7 +3311,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B39" s="16">
         <v>38</v>
       </c>
@@ -3253,7 +3334,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B40" s="16">
         <v>39</v>
       </c>
@@ -3276,7 +3357,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B41" s="16">
         <v>40</v>
       </c>
@@ -3299,7 +3380,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B42" s="16">
         <v>41</v>
       </c>
@@ -3322,7 +3403,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B43" s="16">
         <v>42</v>
       </c>
@@ -3345,7 +3426,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B44" s="16">
         <v>43</v>
       </c>
@@ -3368,7 +3449,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B45" s="16">
         <v>44</v>
       </c>
@@ -3391,7 +3472,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B46" s="16">
         <v>45</v>
       </c>
@@ -3414,7 +3495,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B47" s="16">
         <v>46</v>
       </c>
@@ -3437,7 +3518,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B48" s="16">
         <v>47</v>
       </c>
@@ -3460,7 +3541,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B49" s="16">
         <v>48</v>
       </c>
@@ -3483,7 +3564,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B50" s="16">
         <v>49</v>
       </c>
@@ -3506,7 +3587,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B51" s="16">
         <v>50</v>
       </c>
@@ -3529,7 +3610,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B52" s="16">
         <v>51</v>
       </c>
@@ -3552,7 +3633,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B53" s="16">
         <v>52</v>
       </c>
@@ -3575,7 +3656,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B54" s="16">
         <v>53</v>
       </c>
@@ -3598,7 +3679,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B55" s="16">
         <v>54</v>
       </c>
@@ -3621,7 +3702,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B56" s="16">
         <v>55</v>
       </c>
@@ -3644,7 +3725,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B57" s="16">
         <v>56</v>
       </c>
@@ -3667,7 +3748,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B58" s="16">
         <v>57</v>
       </c>
@@ -3690,7 +3771,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B59" s="16">
         <v>58</v>
       </c>
@@ -3713,7 +3794,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B60" s="16">
         <v>59</v>
       </c>
@@ -3736,7 +3817,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B61" s="16">
         <v>60</v>
       </c>
@@ -3759,7 +3840,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B62" s="16">
         <v>61</v>
       </c>
@@ -3782,7 +3863,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B63" s="16">
         <v>62</v>
       </c>
@@ -3805,7 +3886,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B64" s="16">
         <v>63</v>
       </c>
@@ -3828,7 +3909,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B65" s="16">
         <v>64</v>
       </c>
@@ -3851,7 +3932,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B66" s="16">
         <v>65</v>
       </c>
@@ -3874,7 +3955,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B67" s="16">
         <v>66</v>
       </c>
@@ -3897,7 +3978,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B68" s="16">
         <v>67</v>
       </c>
@@ -3920,7 +4001,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B69" s="16">
         <v>68</v>
       </c>
@@ -3943,7 +4024,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B70" s="16">
         <v>69</v>
       </c>
@@ -3966,7 +4047,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B71" s="16">
         <v>70</v>
       </c>
@@ -3989,7 +4070,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B72" s="16">
         <v>71</v>
       </c>
@@ -4012,7 +4093,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B73" s="16">
         <v>72</v>
       </c>
@@ -4035,7 +4116,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B74" s="16">
         <v>73</v>
       </c>
@@ -4058,7 +4139,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B75" s="16">
         <v>74</v>
       </c>
@@ -4081,7 +4162,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="76" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B76" s="16">
         <v>75</v>
       </c>
@@ -4104,7 +4185,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B77" s="16">
         <v>76</v>
       </c>
@@ -4127,7 +4208,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B78" s="16">
         <v>77</v>
       </c>
@@ -4150,7 +4231,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B79" s="16">
         <v>78</v>
       </c>
@@ -4173,7 +4254,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B80" s="16">
         <v>79</v>
       </c>
@@ -4196,7 +4277,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B81" s="16">
         <v>80</v>
       </c>
@@ -4219,7 +4300,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B82" s="16">
         <v>81</v>
       </c>
@@ -4242,7 +4323,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B83" s="16">
         <v>82</v>
       </c>
@@ -4265,7 +4346,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B84" s="16">
         <v>83</v>
       </c>
@@ -4288,7 +4369,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B85" s="16">
         <v>84</v>
       </c>
@@ -4311,7 +4392,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B86" s="16">
         <v>85</v>
       </c>
@@ -4334,7 +4415,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B87" s="16">
         <v>86</v>
       </c>
@@ -4357,7 +4438,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B88" s="16">
         <v>87</v>
       </c>
@@ -4380,7 +4461,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B89" s="16">
         <v>88</v>
       </c>
@@ -4403,7 +4484,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B90" s="16">
         <v>89</v>
       </c>
@@ -4426,7 +4507,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B91" s="16">
         <v>90</v>
       </c>
@@ -4449,7 +4530,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B92" s="16">
         <v>91</v>
       </c>
@@ -4472,7 +4553,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B93" s="16">
         <v>92</v>
       </c>
@@ -4495,7 +4576,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B94" s="16">
         <v>93</v>
       </c>
@@ -4518,7 +4599,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B95" s="16">
         <v>94</v>
       </c>
@@ -4541,7 +4622,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B96" s="16">
         <v>95</v>
       </c>
@@ -4564,7 +4645,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="97" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B97" s="16">
         <v>96</v>
       </c>
@@ -4587,7 +4668,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B98" s="16">
         <v>97</v>
       </c>
@@ -4610,7 +4691,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B99" s="16">
         <v>98</v>
       </c>
@@ -4633,7 +4714,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B100" s="16">
         <v>99</v>
       </c>
@@ -4656,7 +4737,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B101" s="16">
         <v>100</v>
       </c>
@@ -4679,7 +4760,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B102" s="16">
         <v>101</v>
       </c>
@@ -4702,7 +4783,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B103" s="16">
         <v>102</v>
       </c>
@@ -4725,7 +4806,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B104" s="16">
         <v>103</v>
       </c>
@@ -4748,7 +4829,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B105" s="16">
         <v>104</v>
       </c>
@@ -4769,7 +4850,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B106" s="16">
         <v>105</v>
       </c>
@@ -4792,7 +4873,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="107" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B107" s="16">
         <v>106</v>
       </c>
@@ -4815,7 +4896,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="108" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B108" s="16">
         <v>107</v>
       </c>
@@ -4838,7 +4919,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="109" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B109" s="16">
         <v>108</v>
       </c>
@@ -4861,7 +4942,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="110" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B110" s="16">
         <v>109</v>
       </c>
@@ -4884,7 +4965,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="111" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B111" s="16">
         <v>110</v>
       </c>
@@ -4907,7 +4988,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="112" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B112" s="16">
         <v>111</v>
       </c>
@@ -4930,7 +5011,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B113" s="16">
         <v>112</v>
       </c>
@@ -4953,7 +5034,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B114" s="16">
         <v>113</v>
       </c>
@@ -4976,7 +5057,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B115" s="16">
         <v>114</v>
       </c>
@@ -4999,7 +5080,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B116" s="16">
         <v>115</v>
       </c>
@@ -5022,7 +5103,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B117" s="16">
         <v>116</v>
       </c>
@@ -5045,7 +5126,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B118" s="16">
         <v>117</v>
       </c>
@@ -5068,7 +5149,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B119" s="16">
         <v>118</v>
       </c>
@@ -5091,7 +5172,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B120" s="16">
         <v>119</v>
       </c>
@@ -5114,7 +5195,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="121" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B121" s="16">
         <v>120</v>
       </c>
@@ -5137,7 +5218,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B122" s="16">
         <v>121</v>
       </c>
@@ -5160,7 +5241,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B123" s="16">
         <v>122</v>
       </c>
@@ -5183,7 +5264,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B124" s="16">
         <v>123</v>
       </c>
@@ -5206,7 +5287,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B125" s="16">
         <v>124</v>
       </c>
@@ -5229,7 +5310,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B126" s="16">
         <v>125</v>
       </c>
@@ -5252,7 +5333,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B127" s="16">
         <v>126</v>
       </c>
@@ -5275,7 +5356,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B128" s="16">
         <v>127</v>
       </c>
@@ -5298,7 +5379,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B129" s="16">
         <v>128</v>
       </c>
@@ -5321,7 +5402,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B130" s="16">
         <v>129</v>
       </c>
@@ -5344,7 +5425,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B131" s="16">
         <v>130</v>
       </c>
@@ -5367,7 +5448,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B132" s="16">
         <v>131</v>
       </c>
@@ -5390,7 +5471,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B133" s="16">
         <v>132</v>
       </c>
@@ -5413,7 +5494,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B134" s="16">
         <v>133</v>
       </c>
@@ -5436,7 +5517,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B135" s="16">
         <v>134</v>
       </c>
@@ -5459,7 +5540,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B136" s="16">
         <v>135</v>
       </c>
@@ -5482,7 +5563,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B137" s="16">
         <v>136</v>
       </c>
@@ -5505,7 +5586,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B138" s="16">
         <v>137</v>
       </c>
@@ -5528,7 +5609,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B139" s="16">
         <v>138</v>
       </c>
@@ -5551,7 +5632,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B140" s="16">
         <v>139</v>
       </c>
@@ -5574,7 +5655,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B141" s="16">
         <v>140</v>
       </c>
@@ -5597,7 +5678,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B142" s="16">
         <v>141</v>
       </c>
@@ -5620,7 +5701,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B143" s="16">
         <v>142</v>
       </c>
@@ -5643,7 +5724,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B144" s="16">
         <v>143</v>
       </c>
@@ -5666,7 +5747,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="145" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B145" s="16">
         <v>144</v>
       </c>
@@ -5689,7 +5770,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="146" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B146" s="16">
         <v>145</v>
       </c>
@@ -5712,7 +5793,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="147" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B147" s="16">
         <v>146</v>
       </c>
@@ -5735,7 +5816,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="148" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B148" s="16">
         <v>147</v>
       </c>
@@ -5758,7 +5839,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="149" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B149" s="16">
         <v>148</v>
       </c>
@@ -5781,7 +5862,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="150" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B150" s="16">
         <v>149</v>
       </c>
@@ -5804,7 +5885,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="151" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B151" s="16">
         <v>150</v>
       </c>
@@ -5827,7 +5908,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="152" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B152" s="16">
         <v>151</v>
       </c>
@@ -5850,7 +5931,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="153" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B153" s="16">
         <v>152</v>
       </c>
@@ -5873,7 +5954,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="154" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B154" s="16">
         <v>153</v>
       </c>
@@ -5896,7 +5977,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="155" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B155" s="16">
         <v>154</v>
       </c>
@@ -5919,7 +6000,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B156" s="16">
         <v>155</v>
       </c>
@@ -5942,7 +6023,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B157" s="16">
         <v>156</v>
       </c>
@@ -5965,7 +6046,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="158" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B158" s="16">
         <v>157</v>
       </c>
@@ -5988,7 +6069,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="159" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B159" s="16">
         <v>158</v>
       </c>
@@ -6011,7 +6092,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="160" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B160" s="16">
         <v>159</v>
       </c>
@@ -6034,7 +6115,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="161" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B161" s="16">
         <v>160</v>
       </c>
@@ -6057,7 +6138,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="162" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B162" s="16">
         <v>161</v>
       </c>
@@ -6080,7 +6161,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="163" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B163" s="16">
         <v>162</v>
       </c>
@@ -6103,7 +6184,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="164" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B164" s="16">
         <v>163</v>
       </c>
@@ -6126,7 +6207,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="165" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B165" s="16">
         <v>164</v>
       </c>
@@ -6149,7 +6230,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="166" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B166" s="16">
         <v>165</v>
       </c>
@@ -6172,7 +6253,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="167" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B167" s="16">
         <v>166</v>
       </c>
@@ -6195,7 +6276,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B168" s="16">
         <v>167</v>
       </c>
@@ -6218,7 +6299,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="169" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B169" s="16">
         <v>168</v>
       </c>
@@ -6241,7 +6322,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="170" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B170" s="16">
         <v>169</v>
       </c>
@@ -6264,7 +6345,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="171" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B171" s="16">
         <v>170</v>
       </c>
@@ -6287,7 +6368,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="172" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B172" s="16">
         <v>171</v>
       </c>
@@ -6310,7 +6391,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="173" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B173" s="16">
         <v>172</v>
       </c>
@@ -6333,7 +6414,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="174" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B174" s="16">
         <v>173</v>
       </c>
@@ -6356,7 +6437,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B175" s="16">
         <v>174</v>
       </c>
@@ -6379,7 +6460,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="176" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B176" s="16">
         <v>175</v>
       </c>
@@ -6402,7 +6483,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="177" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B177" s="16">
         <v>176</v>
       </c>
@@ -6425,7 +6506,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="178" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B178" s="16">
         <v>177</v>
       </c>
@@ -6448,7 +6529,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="179" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B179" s="16">
         <v>178</v>
       </c>
@@ -6471,7 +6552,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="180" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B180" s="16">
         <v>179</v>
       </c>
@@ -6494,7 +6575,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="181" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B181" s="16">
         <v>180</v>
       </c>
@@ -6517,7 +6598,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="182" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B182" s="16">
         <v>181</v>
       </c>
@@ -6540,7 +6621,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="183" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B183" s="16">
         <v>182</v>
       </c>
@@ -6563,7 +6644,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="184" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B184" s="16">
         <v>183</v>
       </c>
@@ -6586,7 +6667,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="185" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B185" s="16">
         <v>184</v>
       </c>
@@ -6609,7 +6690,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="186" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B186" s="16">
         <v>185</v>
       </c>
@@ -6632,7 +6713,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="187" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B187" s="16">
         <v>186</v>
       </c>
@@ -6655,7 +6736,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="188" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B188" s="16">
         <v>187</v>
       </c>
@@ -6678,7 +6759,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="189" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B189" s="16">
         <v>188</v>
       </c>
@@ -6701,7 +6782,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="190" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B190" s="16">
         <v>189</v>
       </c>
@@ -6724,7 +6805,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="191" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B191" s="16">
         <v>190</v>
       </c>
@@ -6747,7 +6828,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="192" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B192" s="16">
         <v>191</v>
       </c>
@@ -6770,7 +6851,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="193" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B193" s="16">
         <v>192</v>
       </c>
@@ -6793,7 +6874,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="194" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B194" s="16">
         <v>193</v>
       </c>
@@ -6816,7 +6897,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="195" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B195" s="16">
         <v>194</v>
       </c>
@@ -6839,7 +6920,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="196" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B196" s="16">
         <v>195</v>
       </c>
@@ -6862,7 +6943,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="197" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B197" s="16">
         <v>196</v>
       </c>
@@ -6885,7 +6966,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="198" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B198" s="16">
         <v>197</v>
       </c>
@@ -6908,7 +6989,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="199" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B199" s="16">
         <v>198</v>
       </c>
@@ -6931,7 +7012,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="200" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B200" s="16">
         <v>199</v>
       </c>
@@ -6954,7 +7035,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="201" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B201" s="16">
         <v>200</v>
       </c>
@@ -6977,7 +7058,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="202" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B202" s="16">
         <v>201</v>
       </c>
@@ -7000,7 +7081,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="203" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B203" s="16">
         <v>202</v>
       </c>
@@ -7023,7 +7104,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="204" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B204" s="16">
         <v>203</v>
       </c>
@@ -7046,7 +7127,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="205" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B205" s="16">
         <v>204</v>
       </c>
@@ -7069,7 +7150,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="206" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B206" s="16">
         <v>205</v>
       </c>
@@ -7092,7 +7173,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="207" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B207" s="16">
         <v>206</v>
       </c>
@@ -7115,7 +7196,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="208" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B208" s="16">
         <v>207</v>
       </c>
@@ -7138,7 +7219,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="209" spans="2:8" ht="15.55" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B209" s="16">
         <v>208</v>
       </c>
@@ -7161,7 +7242,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="210" spans="2:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B210" s="18">
         <v>209</v>
       </c>
@@ -7184,7 +7265,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="211" spans="2:8" ht="16.7" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B211" s="20"/>
       <c r="C211" s="21" t="s">
         <v>267</v>
@@ -7201,7 +7282,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="212" spans="2:8" ht="16.149999999999999" x14ac:dyDescent="0.4">
+    <row r="212" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B212" s="16"/>
       <c r="C212" s="23" t="s">
         <v>268</v>
@@ -7216,7 +7297,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="2:8" ht="16.149999999999999" x14ac:dyDescent="0.4">
+    <row r="213" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B213" s="16"/>
       <c r="C213" s="23" t="s">
         <v>269</v>
@@ -7247,23 +7328,23 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.55" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="31"/>
-    <col min="2" max="2" width="19.69921875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="87.09765625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" style="31" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="31"/>
+    <col min="1" max="1" width="8.6640625" style="31"/>
+    <col min="2" max="2" width="19.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="87.08203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.9140625" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B1" s="42" t="s">
         <v>299</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="44"/>
     </row>
-    <row r="2" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>301</v>
       </c>
@@ -7274,7 +7355,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" s="32" t="s">
         <v>275</v>
       </c>
@@ -7283,7 +7364,7 @@
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="35" t="s">
         <v>277</v>
       </c>
@@ -7292,7 +7373,7 @@
       </c>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="35" t="s">
         <v>279</v>
       </c>
@@ -7301,7 +7382,7 @@
       </c>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="35" t="s">
         <v>281</v>
       </c>
@@ -7310,7 +7391,7 @@
       </c>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="35" t="s">
         <v>283</v>
       </c>
@@ -7319,7 +7400,7 @@
       </c>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="35" t="s">
         <v>285</v>
       </c>
@@ -7328,7 +7409,7 @@
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="35" t="s">
         <v>287</v>
       </c>
@@ -7337,7 +7418,7 @@
       </c>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="35" t="s">
         <v>289</v>
       </c>
@@ -7346,7 +7427,7 @@
       </c>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="35" t="s">
         <v>291</v>
       </c>
@@ -7355,7 +7436,7 @@
       </c>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="35" t="s">
         <v>293</v>
       </c>
@@ -7364,7 +7445,7 @@
       </c>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="35" t="s">
         <v>295</v>
       </c>
@@ -7373,7 +7454,7 @@
       </c>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="2:4" ht="16.149999999999999" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="38" t="s">
         <v>297</v>
       </c>
@@ -7393,41 +7474,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J187"/>
+  <dimension ref="B1:J195"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J15" sqref="J15"/>
       <selection pane="topRight" activeCell="J15" sqref="J15"/>
       <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.55" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="13.796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.08203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="54.08203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.08203125" style="30" customWidth="1"/>
     <col min="7" max="7" width="9" style="26" customWidth="1"/>
     <col min="8" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16.149999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" s="47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="G1" s="26" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" ht="16.600000000000001" customHeight="1" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="48" t="s">
         <v>305</v>
       </c>
@@ -7436,7 +7517,7 @@
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
     </row>
-    <row r="3" spans="2:7" ht="16.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="7" t="s">
         <v>304</v>
       </c>
@@ -7453,1005 +7534,991 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16.149999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
       <c r="F4" s="46"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
         <v>419</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="2:7" ht="16.149999999999999" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="27"/>
       <c r="C7" s="16" t="s">
         <v>420</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>456</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>459</v>
+      </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="27"/>
-      <c r="C8" s="16" t="s">
-        <v>421</v>
-      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>457</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>458</v>
+      </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="2:7" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B9" s="45" t="s">
-        <v>438</v>
-      </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="27"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="27"/>
-      <c r="C10" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>323</v>
-      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="5"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="27"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="14" t="s">
-        <v>314</v>
-      </c>
+      <c r="D11" s="14"/>
       <c r="E11" s="5"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="27"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="14" t="s">
-        <v>324</v>
-      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="5"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="27"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="14" t="s">
-        <v>315</v>
-      </c>
+      <c r="D13" s="14"/>
       <c r="E13" s="5"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="27"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="14" t="s">
-        <v>325</v>
-      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="5"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="27"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="14" t="s">
-        <v>316</v>
-      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="5"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="27"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>421</v>
+      </c>
       <c r="D16" s="14" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="27"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="27"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="16" t="s">
+        <v>307</v>
+      </c>
       <c r="D18" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="27"/>
       <c r="C19" s="16"/>
       <c r="D19" s="14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="27"/>
       <c r="C20" s="16"/>
       <c r="D20" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="27"/>
       <c r="C21" s="16"/>
       <c r="D21" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="27"/>
       <c r="C22" s="16"/>
       <c r="D22" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="27"/>
       <c r="C23" s="16"/>
       <c r="D23" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="27"/>
-      <c r="C24" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>330</v>
-      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="27"/>
-      <c r="C25" s="16" t="s">
-        <v>321</v>
-      </c>
+      <c r="C25" s="16"/>
       <c r="D25" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>337</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="27"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="5" t="s">
-        <v>337</v>
+      <c r="D26" s="14" t="s">
+        <v>326</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="27"/>
       <c r="C27" s="16"/>
       <c r="D27" s="14" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="27"/>
       <c r="C28" s="16"/>
       <c r="D28" s="14" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="27"/>
       <c r="C29" s="16"/>
       <c r="D29" s="14" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="27"/>
       <c r="C30" s="16"/>
       <c r="D30" s="14" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="27"/>
-      <c r="C31" s="16" t="s">
-        <v>308</v>
-      </c>
+      <c r="C31" s="16"/>
       <c r="D31" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="27"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C32" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="27"/>
-      <c r="C33" s="16"/>
+      <c r="C33" s="16" t="s">
+        <v>321</v>
+      </c>
       <c r="D33" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="11"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+        <v>336</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="27"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="11"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D34" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" s="27"/>
       <c r="C35" s="16"/>
       <c r="D35" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="11"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B36" s="27"/>
       <c r="C36" s="16"/>
       <c r="D36" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="11"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="41"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="27"/>
       <c r="C37" s="16"/>
       <c r="D37" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B38" s="27"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="11"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="27"/>
-      <c r="C38" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="11"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E38" s="5"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B39" s="27"/>
       <c r="C39" s="16" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>355</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="11"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B40" s="27"/>
       <c r="C40" s="16"/>
       <c r="D40" s="14" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="11"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B41" s="27"/>
       <c r="C41" s="16"/>
       <c r="D41" s="14" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="11"/>
       <c r="I41" s="40"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J41" s="40"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B42" s="27"/>
       <c r="C42" s="16"/>
       <c r="D42" s="14" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="11"/>
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B43" s="27"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="14" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="11"/>
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
+        <v>343</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="11"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B45" s="27"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="11"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
+      <c r="C46" s="16" t="s">
+        <v>309</v>
+      </c>
       <c r="D46" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="2:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+        <v>344</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="11"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B47" s="27"/>
+      <c r="C47" s="16" t="s">
+        <v>358</v>
+      </c>
       <c r="D47" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="2:10" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="28"/>
-      <c r="C49" s="16" t="s">
-        <v>359</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="11"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B49" s="27"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="2:6" ht="15.55" customHeight="1" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="11"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="41"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B50" s="27"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="11"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
-      <c r="D51" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="28"/>
+      <c r="D51" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="11"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B52" s="27"/>
       <c r="C52" s="28"/>
-      <c r="D52" s="4" t="s">
-        <v>348</v>
+      <c r="D52" s="14" t="s">
+        <v>350</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
-      <c r="D53" s="4" t="s">
-        <v>356</v>
+      <c r="D53" s="14" t="s">
+        <v>351</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="28"/>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B54" s="27"/>
       <c r="C54" s="28"/>
-      <c r="D54" s="4" t="s">
-        <v>357</v>
+      <c r="D54" s="14" t="s">
+        <v>352</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
-      <c r="D55" s="4" t="s">
-        <v>351</v>
+      <c r="D55" s="14" t="s">
+        <v>353</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="28"/>
+    <row r="56" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="27"/>
       <c r="C56" s="28"/>
-      <c r="D56" s="4" t="s">
-        <v>352</v>
+      <c r="D56" s="14" t="s">
+        <v>354</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="2:6" ht="15.7" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E57" s="4"/>
+      <c r="C57" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>355</v>
+      </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+    <row r="58" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
       <c r="D58" s="4" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="10"/>
-      <c r="C59" s="16" t="s">
-        <v>310</v>
-      </c>
+    <row r="59" spans="2:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="4" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+    <row r="60" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="4" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+    <row r="61" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
       <c r="D61" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="12"/>
-    </row>
-    <row r="63" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
+    <row r="62" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
       <c r="D63" s="4" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="14"/>
+    <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="28"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="28"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="14"/>
+      <c r="D64" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="28"/>
       <c r="C65" s="28"/>
-      <c r="D65" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="28"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="14"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="28"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="14"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="14" t="s">
+      <c r="D65" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="28"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="14"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="28"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="14"/>
-      <c r="C69" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="28"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="14"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="28"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="14"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="28"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="4"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="10"/>
+      <c r="C67" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="10"/>
+    </row>
+    <row r="68" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="2:6" s="29" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="14"/>
       <c r="C72" s="28"/>
       <c r="D72" s="14" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="28"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="14"/>
       <c r="C73" s="28"/>
       <c r="D73" s="14" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="28"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="14"/>
       <c r="C74" s="28"/>
       <c r="D74" s="14" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="28"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="14"/>
       <c r="C75" s="28"/>
       <c r="D75" s="14" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="28"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="14"/>
       <c r="C76" s="28"/>
       <c r="D76" s="14" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="28"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="14"/>
-      <c r="C77" s="28"/>
+      <c r="C77" s="16" t="s">
+        <v>311</v>
+      </c>
       <c r="D77" s="14" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="28"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="14"/>
       <c r="C78" s="28"/>
       <c r="D78" s="14" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="28"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="14"/>
       <c r="C79" s="28"/>
       <c r="D79" s="14" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="28"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="14"/>
       <c r="C80" s="28"/>
       <c r="D80" s="14" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="28"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="14"/>
       <c r="C81" s="28"/>
       <c r="D81" s="14" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="28"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="14"/>
       <c r="C82" s="28"/>
       <c r="D82" s="14" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="28"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="14"/>
       <c r="C83" s="28"/>
       <c r="D83" s="14" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="28"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="14"/>
       <c r="C84" s="28"/>
       <c r="D84" s="14" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="28"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="14"/>
       <c r="C85" s="28"/>
       <c r="D85" s="14" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="28"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="14"/>
       <c r="C86" s="28"/>
       <c r="D86" s="14" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="28"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="14"/>
       <c r="C87" s="28"/>
       <c r="D87" s="14" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="28"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="14"/>
       <c r="C88" s="28"/>
       <c r="D88" s="14" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="28"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="14"/>
       <c r="C89" s="28"/>
       <c r="D89" s="14" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="28"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="28"/>
       <c r="D90" s="14" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="28"/>
     </row>
-    <row r="91" spans="2:6" ht="31.1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="14"/>
-      <c r="C91" s="16" t="s">
-        <v>404</v>
-      </c>
+      <c r="C91" s="28"/>
       <c r="D91" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="E91" s="39" t="s">
-        <v>416</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="E91" s="14"/>
       <c r="F91" s="28"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="28"/>
       <c r="D92" s="14" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="28"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="14"/>
       <c r="C93" s="28"/>
       <c r="D93" s="14" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="28"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="14"/>
       <c r="C94" s="28"/>
       <c r="D94" s="14" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E94" s="14"/>
       <c r="F94" s="28"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="14"/>
       <c r="C95" s="28"/>
       <c r="D95" s="14" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="28"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="14"/>
       <c r="C96" s="28"/>
       <c r="D96" s="14" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="28"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="14"/>
       <c r="C97" s="28"/>
       <c r="D97" s="14" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="28"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="14"/>
       <c r="C98" s="28"/>
       <c r="D98" s="14" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E98" s="14"/>
       <c r="F98" s="28"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B99" s="14"/>
-      <c r="C99" s="28"/>
+      <c r="C99" s="16" t="s">
+        <v>404</v>
+      </c>
       <c r="D99" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="E99" s="14"/>
+        <v>391</v>
+      </c>
+      <c r="E99" s="39" t="s">
+        <v>416</v>
+      </c>
       <c r="F99" s="28"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="14"/>
       <c r="C100" s="28"/>
       <c r="D100" s="14" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="28"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="14"/>
       <c r="C101" s="28"/>
       <c r="D101" s="14" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="28"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="14"/>
       <c r="C102" s="28"/>
       <c r="D102" s="14" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E102" s="14"/>
       <c r="F102" s="28"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="14"/>
       <c r="C103" s="28"/>
       <c r="D103" s="14" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="28"/>
     </row>
-    <row r="104" spans="2:6" ht="31.1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="14"/>
       <c r="C104" s="28"/>
-      <c r="D104" s="39" t="s">
-        <v>403</v>
+      <c r="D104" s="14" t="s">
+        <v>396</v>
       </c>
       <c r="E104" s="14"/>
       <c r="F104" s="28"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="14"/>
-      <c r="C105" s="28" t="s">
-        <v>405</v>
-      </c>
+      <c r="C105" s="28"/>
       <c r="D105" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>417</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="E105" s="14"/>
       <c r="F105" s="28"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="14"/>
       <c r="C106" s="28"/>
       <c r="D106" s="14" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E106" s="14"/>
       <c r="F106" s="28"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="14"/>
       <c r="C107" s="28"/>
       <c r="D107" s="14" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E107" s="14"/>
       <c r="F107" s="28"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="14"/>
       <c r="C108" s="28"/>
       <c r="D108" s="14" t="s">
@@ -8460,605 +8527,681 @@
       <c r="E108" s="14"/>
       <c r="F108" s="28"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="14"/>
       <c r="C109" s="28"/>
       <c r="D109" s="14" t="s">
-        <v>333</v>
+        <v>401</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="28"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="14"/>
       <c r="C110" s="28"/>
       <c r="D110" s="14" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E110" s="14"/>
       <c r="F110" s="28"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="14"/>
-      <c r="C111" s="28" t="s">
-        <v>410</v>
-      </c>
+      <c r="C111" s="28"/>
       <c r="D111" s="14" t="s">
-        <v>411</v>
+        <v>328</v>
       </c>
       <c r="E111" s="14"/>
       <c r="F111" s="28"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B112" s="14"/>
       <c r="C112" s="28"/>
-      <c r="D112" s="14" t="s">
-        <v>412</v>
+      <c r="D112" s="39" t="s">
+        <v>403</v>
       </c>
       <c r="E112" s="14"/>
       <c r="F112" s="28"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="14"/>
-      <c r="C113" s="28"/>
+      <c r="C113" s="28" t="s">
+        <v>405</v>
+      </c>
       <c r="D113" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="E113" s="14"/>
+        <v>406</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>417</v>
+      </c>
       <c r="F113" s="28"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="14"/>
       <c r="C114" s="28"/>
       <c r="D114" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>418</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="E114" s="14"/>
       <c r="F114" s="28"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="14"/>
       <c r="C115" s="28"/>
       <c r="D115" s="14" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="28"/>
     </row>
-    <row r="116" spans="2:6" ht="16.149999999999999" x14ac:dyDescent="0.4">
-      <c r="B116" s="45" t="s">
-        <v>437</v>
-      </c>
-      <c r="C116" s="46"/>
-      <c r="D116" s="46"/>
-      <c r="E116" s="46"/>
-      <c r="F116" s="46"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B116" s="14"/>
+      <c r="C116" s="28"/>
+      <c r="D116" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="E116" s="14"/>
+      <c r="F116" s="28"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="14"/>
-      <c r="C117" s="28" t="s">
-        <v>425</v>
-      </c>
+      <c r="C117" s="28"/>
       <c r="D117" s="14" t="s">
-        <v>426</v>
+        <v>333</v>
       </c>
       <c r="E117" s="14"/>
       <c r="F117" s="28"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="14"/>
-      <c r="C118" s="28" t="s">
-        <v>427</v>
-      </c>
+      <c r="C118" s="28"/>
       <c r="D118" s="14" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="E118" s="14"/>
       <c r="F118" s="28"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="14"/>
       <c r="C119" s="28" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="E119" s="14"/>
       <c r="F119" s="28"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="14"/>
-      <c r="C120" s="28" t="s">
-        <v>431</v>
-      </c>
+      <c r="C120" s="28"/>
       <c r="D120" s="14" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="E120" s="14"/>
       <c r="F120" s="28"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="14"/>
-      <c r="C121" s="28" t="s">
-        <v>433</v>
-      </c>
+      <c r="C121" s="28"/>
       <c r="D121" s="14" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="E121" s="14"/>
       <c r="F121" s="28"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="14"/>
       <c r="C122" s="28"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
+      <c r="D122" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>418</v>
+      </c>
       <c r="F122" s="28"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="14"/>
       <c r="C123" s="28"/>
-      <c r="D123" s="14"/>
+      <c r="D123" s="14" t="s">
+        <v>414</v>
+      </c>
       <c r="E123" s="14"/>
       <c r="F123" s="28"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="14"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="28"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B124" s="45" t="s">
+        <v>436</v>
+      </c>
+      <c r="C124" s="46"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="46"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="14"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="14"/>
+      <c r="C125" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>425</v>
+      </c>
       <c r="E125" s="14"/>
       <c r="F125" s="28"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="14"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="14"/>
+      <c r="C126" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>427</v>
+      </c>
       <c r="E126" s="14"/>
       <c r="F126" s="28"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="14"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="14"/>
+      <c r="C127" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>429</v>
+      </c>
       <c r="E127" s="14"/>
       <c r="F127" s="28"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="14"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="14"/>
+      <c r="C128" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>431</v>
+      </c>
       <c r="E128" s="14"/>
       <c r="F128" s="28"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="14"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="14"/>
+      <c r="C129" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>433</v>
+      </c>
       <c r="E129" s="14"/>
       <c r="F129" s="28"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="14"/>
       <c r="C130" s="28"/>
       <c r="D130" s="14"/>
       <c r="E130" s="14"/>
       <c r="F130" s="28"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="14"/>
       <c r="C131" s="28"/>
       <c r="D131" s="14"/>
       <c r="E131" s="14"/>
       <c r="F131" s="28"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="14"/>
       <c r="C132" s="28"/>
       <c r="D132" s="14"/>
       <c r="E132" s="14"/>
       <c r="F132" s="28"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="14"/>
       <c r="C133" s="28"/>
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
       <c r="F133" s="28"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="14"/>
       <c r="C134" s="28"/>
       <c r="D134" s="14"/>
       <c r="E134" s="14"/>
       <c r="F134" s="28"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="14"/>
       <c r="C135" s="28"/>
       <c r="D135" s="14"/>
       <c r="E135" s="14"/>
       <c r="F135" s="28"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="14"/>
       <c r="C136" s="28"/>
       <c r="D136" s="14"/>
       <c r="E136" s="14"/>
       <c r="F136" s="28"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="14"/>
       <c r="C137" s="28"/>
       <c r="D137" s="14"/>
       <c r="E137" s="14"/>
       <c r="F137" s="28"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="14"/>
       <c r="C138" s="28"/>
       <c r="D138" s="14"/>
       <c r="E138" s="14"/>
       <c r="F138" s="28"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="14"/>
       <c r="C139" s="28"/>
       <c r="D139" s="14"/>
       <c r="E139" s="14"/>
       <c r="F139" s="28"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="14"/>
       <c r="C140" s="28"/>
       <c r="D140" s="14"/>
       <c r="E140" s="14"/>
       <c r="F140" s="28"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="14"/>
       <c r="C141" s="28"/>
       <c r="D141" s="14"/>
       <c r="E141" s="14"/>
       <c r="F141" s="28"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="14"/>
       <c r="C142" s="28"/>
       <c r="D142" s="14"/>
       <c r="E142" s="14"/>
       <c r="F142" s="28"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="14"/>
       <c r="C143" s="28"/>
       <c r="D143" s="14"/>
       <c r="E143" s="14"/>
       <c r="F143" s="28"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="14"/>
       <c r="C144" s="28"/>
       <c r="D144" s="14"/>
       <c r="E144" s="14"/>
       <c r="F144" s="28"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="14"/>
       <c r="C145" s="28"/>
       <c r="D145" s="14"/>
       <c r="E145" s="14"/>
       <c r="F145" s="28"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="14"/>
       <c r="C146" s="28"/>
       <c r="D146" s="14"/>
       <c r="E146" s="14"/>
       <c r="F146" s="28"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="14"/>
       <c r="C147" s="28"/>
       <c r="D147" s="14"/>
       <c r="E147" s="14"/>
       <c r="F147" s="28"/>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="14"/>
       <c r="C148" s="28"/>
       <c r="D148" s="14"/>
       <c r="E148" s="14"/>
       <c r="F148" s="28"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="14"/>
       <c r="C149" s="28"/>
       <c r="D149" s="14"/>
       <c r="E149" s="14"/>
       <c r="F149" s="28"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="14"/>
       <c r="C150" s="28"/>
       <c r="D150" s="14"/>
       <c r="E150" s="14"/>
       <c r="F150" s="28"/>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="14"/>
       <c r="C151" s="28"/>
       <c r="D151" s="14"/>
       <c r="E151" s="14"/>
       <c r="F151" s="28"/>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="14"/>
       <c r="C152" s="28"/>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
       <c r="F152" s="28"/>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="14"/>
       <c r="C153" s="28"/>
       <c r="D153" s="14"/>
       <c r="E153" s="14"/>
       <c r="F153" s="28"/>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="14"/>
       <c r="C154" s="28"/>
       <c r="D154" s="14"/>
       <c r="E154" s="14"/>
       <c r="F154" s="28"/>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="14"/>
       <c r="C155" s="28"/>
       <c r="D155" s="14"/>
       <c r="E155" s="14"/>
       <c r="F155" s="28"/>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="14"/>
       <c r="C156" s="28"/>
       <c r="D156" s="14"/>
       <c r="E156" s="14"/>
       <c r="F156" s="28"/>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="14"/>
       <c r="C157" s="28"/>
       <c r="D157" s="14"/>
       <c r="E157" s="14"/>
       <c r="F157" s="28"/>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="14"/>
       <c r="C158" s="28"/>
       <c r="D158" s="14"/>
       <c r="E158" s="14"/>
       <c r="F158" s="28"/>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="14"/>
       <c r="C159" s="28"/>
       <c r="D159" s="14"/>
       <c r="E159" s="14"/>
       <c r="F159" s="28"/>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="14"/>
       <c r="C160" s="28"/>
       <c r="D160" s="14"/>
       <c r="E160" s="14"/>
       <c r="F160" s="28"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="14"/>
       <c r="C161" s="28"/>
       <c r="D161" s="14"/>
       <c r="E161" s="14"/>
       <c r="F161" s="28"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="14"/>
       <c r="C162" s="28"/>
       <c r="D162" s="14"/>
       <c r="E162" s="14"/>
       <c r="F162" s="28"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="14"/>
       <c r="C163" s="28"/>
       <c r="D163" s="14"/>
       <c r="E163" s="14"/>
       <c r="F163" s="28"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="14"/>
       <c r="C164" s="28"/>
       <c r="D164" s="14"/>
       <c r="E164" s="14"/>
       <c r="F164" s="28"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="14"/>
       <c r="C165" s="28"/>
       <c r="D165" s="14"/>
       <c r="E165" s="14"/>
       <c r="F165" s="28"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="14"/>
       <c r="C166" s="28"/>
       <c r="D166" s="14"/>
       <c r="E166" s="14"/>
       <c r="F166" s="28"/>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="14"/>
       <c r="C167" s="28"/>
       <c r="D167" s="14"/>
       <c r="E167" s="14"/>
       <c r="F167" s="28"/>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="14"/>
       <c r="C168" s="28"/>
       <c r="D168" s="14"/>
       <c r="E168" s="14"/>
       <c r="F168" s="28"/>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="14"/>
       <c r="C169" s="28"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
       <c r="F169" s="28"/>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="14"/>
       <c r="C170" s="28"/>
       <c r="D170" s="14"/>
       <c r="E170" s="14"/>
       <c r="F170" s="28"/>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="14"/>
       <c r="C171" s="28"/>
       <c r="D171" s="14"/>
       <c r="E171" s="14"/>
       <c r="F171" s="28"/>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="14"/>
       <c r="C172" s="28"/>
       <c r="D172" s="14"/>
       <c r="E172" s="14"/>
       <c r="F172" s="28"/>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="14"/>
       <c r="C173" s="28"/>
       <c r="D173" s="14"/>
       <c r="E173" s="14"/>
       <c r="F173" s="28"/>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="14"/>
       <c r="C174" s="28"/>
       <c r="D174" s="14"/>
       <c r="E174" s="14"/>
       <c r="F174" s="28"/>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="14"/>
       <c r="C175" s="28"/>
       <c r="D175" s="14"/>
       <c r="E175" s="14"/>
       <c r="F175" s="28"/>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="14"/>
       <c r="C176" s="28"/>
       <c r="D176" s="14"/>
       <c r="E176" s="14"/>
       <c r="F176" s="28"/>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="14"/>
       <c r="C177" s="28"/>
       <c r="D177" s="14"/>
       <c r="E177" s="14"/>
       <c r="F177" s="28"/>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="14"/>
       <c r="C178" s="28"/>
       <c r="D178" s="14"/>
       <c r="E178" s="14"/>
       <c r="F178" s="28"/>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="14"/>
       <c r="C179" s="28"/>
       <c r="D179" s="14"/>
       <c r="E179" s="14"/>
       <c r="F179" s="28"/>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="14"/>
       <c r="C180" s="28"/>
       <c r="D180" s="14"/>
       <c r="E180" s="14"/>
       <c r="F180" s="28"/>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="14"/>
       <c r="C181" s="28"/>
       <c r="D181" s="14"/>
       <c r="E181" s="14"/>
       <c r="F181" s="28"/>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="14"/>
       <c r="C182" s="28"/>
       <c r="D182" s="14"/>
       <c r="E182" s="14"/>
       <c r="F182" s="28"/>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="14"/>
       <c r="C183" s="28"/>
       <c r="D183" s="14"/>
       <c r="E183" s="14"/>
       <c r="F183" s="28"/>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="14"/>
       <c r="C184" s="28"/>
       <c r="D184" s="14"/>
       <c r="E184" s="14"/>
       <c r="F184" s="28"/>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="14"/>
       <c r="C185" s="28"/>
       <c r="D185" s="14"/>
       <c r="E185" s="14"/>
       <c r="F185" s="28"/>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="14"/>
       <c r="C186" s="28"/>
       <c r="D186" s="14"/>
       <c r="E186" s="14"/>
       <c r="F186" s="28"/>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" s="14"/>
       <c r="C187" s="28"/>
       <c r="D187" s="14"/>
       <c r="E187" s="14"/>
       <c r="F187" s="28"/>
     </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B188" s="14"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="28"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B189" s="14"/>
+      <c r="C189" s="28"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="28"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B190" s="14"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="28"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B191" s="14"/>
+      <c r="C191" s="28"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="28"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B192" s="14"/>
+      <c r="C192" s="28"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="28"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B193" s="14"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="28"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B194" s="14"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="28"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B195" s="14"/>
+      <c r="C195" s="28"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="28"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B17:F17"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B124:F124"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B6:F6"/>
   </mergeCells>
@@ -9072,35 +9215,135 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:C6"/>
+  <dimension ref="A4:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>459</v>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="49" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -9118,23 +9361,23 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.55" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="8.69921875" style="17"/>
-    <col min="4" max="4" width="12.59765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.3984375" style="17" customWidth="1"/>
+    <col min="1" max="3" width="8.6640625" style="17"/>
+    <col min="4" max="4" width="12.58203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.4140625" style="17" customWidth="1"/>
     <col min="6" max="6" width="13" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" style="17"/>
-    <col min="8" max="9" width="9.09765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="17"/>
+    <col min="7" max="7" width="8.6640625" style="17"/>
+    <col min="8" max="9" width="9.08203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="16.7" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="7" t="s">
         <v>304</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>263</v>
@@ -9149,98 +9392,98 @@
         <v>306</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C3" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C4" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C5" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C6" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C7" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="D3" s="17" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C8" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C4" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="E8" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C9" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C5" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="E9" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C10" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C6" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C7" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C8" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C9" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C10" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/03 绩效报告/丽泽项目代码学习进度.xlsx
+++ b/03 绩效报告/丽泽项目代码学习进度.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="代码学习进度" sheetId="1" r:id="rId1"/>
     <sheet name="API学习计划" sheetId="2" r:id="rId2"/>
     <sheet name="Server代码修改详细" sheetId="5" r:id="rId3"/>
-    <sheet name="修改milestone" sheetId="7" r:id="rId4"/>
-    <sheet name="功能新增" sheetId="6" r:id="rId5"/>
+    <sheet name="server后台-功能新增" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">代码学习进度!$C$1:$C$213</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="462">
   <si>
     <t>（一）基础功能</t>
   </si>
@@ -1514,66 +1514,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>员工表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据字典设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义画面1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义画面1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>server</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list一览/查询/搜索</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建/保存功能/元素校验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>企业一览</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1590,83 +1530,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>代码环境搭建</t>
+    <t>画面</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>推荐管理 cms后台</t>
+    <t>项目查询一览</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>网站配置 cms后台</t>
+    <t>元素</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工作票模板 server后台</t>
+    <t>1、可任意组合查询，点查询出结果，点重置清空查询条件；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>角色管理 server后台</t>
+    <t>2、点击新建跳转新建画面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>物品放入园区流程 APP+ server后台</t>
+    <t>3、点击分页导航按钮可以进行分页操作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>园区介绍 APP</t>
+    <t>4、点击产品名称里元素可跳转产品投资详细画面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容管理 cms后台</t>
+    <t>项目新建</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>推荐模型 cms后台</t>
+    <t>1、*为必填元素</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mongoDB表设计</t>
+    <t>2、产品名称：string类型；申请时间：时间格式选择；金额：货币数字形式有,好分隔；投资人：string类型；信息备注：长文本；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容模型 cms后台</t>
+    <t>项目删除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CMS留言评论 server后台</t>
+    <t>1、点击【删除】按钮，弹出提示是否确认删除，点击【是】则删除，点击【否】则取消删除；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>管理员 server后台</t>
+    <t>1、在查询一览画面点击【修改】按钮弹出此画面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>媒体库管理 cms后台</t>
+    <t>3、点击【保存】：成功，弹出成功提示不需要点确认；失败，弹出失败提示不需要点确认；
+点击取消返回上级菜单；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内容分类 cms后台</t>
+    <t>2、可修改画面中任意元素信息，点击【保存】，弹出成功提示或失败提示，不需要确认点击；</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>消息管理 server后台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投诉建议 APP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页轮播屏 APP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业管理 server后台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>milestone活动</t>
+    <t>项目修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1818,7 +1747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1932,6 +1861,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1945,7 +1894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2046,6 +1995,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2068,7 +2041,30 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - 着色 1" xfId="2" builtinId="31"/>
@@ -2155,6 +2151,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74709</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7363589</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>59767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49095016-E75D-486E-B4D0-C6A3F1C04D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6462062" y="440767"/>
+          <a:ext cx="7288880" cy="2136588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6804</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7313458</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AD4A55-4654-469D-9897-B24981921777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6411233" y="2746375"/>
+          <a:ext cx="7306654" cy="2088696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20079</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7329505</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>72840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D674A7B8-A22B-45FA-99F1-ABB06D7F4E26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6168375" y="5020704"/>
+          <a:ext cx="7288880" cy="2124449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>48005</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7323666</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9615EA-B04B-440A-8069-45F5A0A1B030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6165172" y="7400396"/>
+          <a:ext cx="7275661" cy="2111954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2422,7 +2599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
@@ -7338,11 +7515,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="50" t="s">
         <v>299</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
@@ -7481,7 +7658,7 @@
       <selection activeCell="J15" sqref="J15"/>
       <selection pane="topRight" activeCell="J15" sqref="J15"/>
       <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7497,25 +7674,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="55" t="s">
         <v>438</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="26" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="7" t="s">
@@ -7535,13 +7712,13 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="53" t="s">
         <v>440</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="27"/>
@@ -7555,13 +7732,13 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="53" t="s">
         <v>434</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="27"/>
@@ -7569,10 +7746,10 @@
         <v>420</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -7580,10 +7757,10 @@
       <c r="B8" s="27"/>
       <c r="C8" s="16"/>
       <c r="D8" s="14" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -7648,13 +7825,13 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="27"/>
@@ -8433,7 +8610,7 @@
       <c r="E98" s="14"/>
       <c r="F98" s="28"/>
     </row>
-    <row r="99" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="14"/>
       <c r="C99" s="16" t="s">
         <v>404</v>
@@ -8671,13 +8848,13 @@
       <c r="F123" s="28"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B124" s="45" t="s">
+      <c r="B124" s="53" t="s">
         <v>436</v>
       </c>
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="46"/>
-      <c r="F124" s="46"/>
+      <c r="C124" s="54"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="54"/>
+      <c r="F124" s="54"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="14"/>
@@ -9215,275 +9392,250 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B23"/>
+  <dimension ref="B2:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="42"/>
+    <col min="2" max="2" width="12.58203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="42" customWidth="1"/>
+    <col min="4" max="4" width="99.25" style="48" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="42"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="49" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B3" s="57" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="D3" s="63"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="57"/>
+      <c r="C4" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="63"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="57"/>
+      <c r="C5" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" s="63"/>
+    </row>
+    <row r="6" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="57"/>
+      <c r="C6" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="63"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="45"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="63"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="45"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="63"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="45"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="63"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="63"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="45"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="63"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="D12" s="63"/>
+    </row>
+    <row r="13" spans="2:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="B13" s="59"/>
+      <c r="C13" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" s="63"/>
+    </row>
+    <row r="14" spans="2:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="B14" s="60"/>
+      <c r="C14" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="63"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="63"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="45"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="63"/>
+    </row>
+    <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="49" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="D17" s="63"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="45"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="63"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="45"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="63"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="45"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="63"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="45"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="63"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="45"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="63"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="45"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="63"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="45"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="63"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="45"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="63"/>
+    </row>
+    <row r="26" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="D26" s="63"/>
+    </row>
+    <row r="27" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="62"/>
+      <c r="C27" s="44" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17" t="s">
-        <v>468</v>
-      </c>
+      <c r="D27" s="63"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="45"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="63"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="45"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="63"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="45"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="63"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="63"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="63"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="64"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B26:B27"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:D2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.6640625" style="17"/>
-    <col min="4" max="4" width="12.58203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.4140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="13" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="17"/>
-    <col min="8" max="9" width="9.08203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="17"/>
+    <col min="2" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C3" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D3" s="17" t="s">
+    <row r="2" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>445</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C4" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C5" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C6" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C7" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C8" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C9" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C10" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/03 绩效报告/丽泽项目代码学习进度.xlsx
+++ b/03 绩效报告/丽泽项目代码学习进度.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="代码学习进度" sheetId="1" r:id="rId1"/>
     <sheet name="API学习计划" sheetId="2" r:id="rId2"/>
     <sheet name="Server代码修改详细" sheetId="5" r:id="rId3"/>
     <sheet name="server后台-功能新增" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">代码学习进度!$C$1:$C$213</definedName>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="462">
   <si>
     <t>（一）基础功能</t>
   </si>
@@ -2019,6 +2018,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2058,12 +2063,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7515,11 +7514,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
@@ -7674,25 +7673,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="26" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="7" t="s">
@@ -7712,13 +7711,13 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>440</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" s="27"/>
@@ -7732,13 +7731,13 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="55" t="s">
         <v>434</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="27"/>
@@ -7825,13 +7824,13 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="55" t="s">
         <v>437</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="27"/>
@@ -8848,13 +8847,13 @@
       <c r="F123" s="28"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B124" s="53" t="s">
+      <c r="B124" s="55" t="s">
         <v>436</v>
       </c>
-      <c r="C124" s="54"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="54"/>
-      <c r="F124" s="54"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="56"/>
+      <c r="F124" s="56"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="14"/>
@@ -9394,7 +9393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
@@ -9419,92 +9418,92 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="59" t="s">
         <v>447</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>449</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="50"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="57"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="50"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="44" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="50"/>
     </row>
     <row r="6" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="44" t="s">
         <v>452</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="50"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="45"/>
       <c r="C7" s="44"/>
-      <c r="D7" s="63"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="45"/>
       <c r="C8" s="44"/>
-      <c r="D8" s="63"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="45"/>
       <c r="C9" s="44"/>
-      <c r="D9" s="63"/>
+      <c r="D9" s="50"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="45"/>
       <c r="C10" s="44"/>
-      <c r="D10" s="63"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="45"/>
       <c r="C11" s="44"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="60" t="s">
         <v>453</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" spans="2:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="B13" s="59"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="44" t="s">
         <v>455</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" spans="2:4" ht="66" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="D14" s="63"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="45"/>
       <c r="C15" s="44"/>
-      <c r="D15" s="63"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="45"/>
       <c r="C16" s="44"/>
-      <c r="D16" s="63"/>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B17" s="49" t="s">
@@ -9513,93 +9512,93 @@
       <c r="C17" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="50"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
-      <c r="D18" s="63"/>
+      <c r="D18" s="50"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="45"/>
       <c r="C19" s="44"/>
-      <c r="D19" s="63"/>
+      <c r="D19" s="50"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="45"/>
       <c r="C20" s="44"/>
-      <c r="D20" s="63"/>
+      <c r="D20" s="50"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="45"/>
       <c r="C21" s="44"/>
-      <c r="D21" s="63"/>
+      <c r="D21" s="50"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="45"/>
       <c r="C22" s="44"/>
-      <c r="D22" s="63"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="45"/>
       <c r="C23" s="44"/>
-      <c r="D23" s="63"/>
+      <c r="D23" s="50"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="45"/>
       <c r="C24" s="44"/>
-      <c r="D24" s="63"/>
+      <c r="D24" s="50"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="45"/>
       <c r="C25" s="44"/>
-      <c r="D25" s="63"/>
+      <c r="D25" s="50"/>
     </row>
     <row r="26" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="63" t="s">
         <v>461</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>458</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="50"/>
     </row>
     <row r="27" spans="2:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="62"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="50"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="45"/>
       <c r="C28" s="44"/>
-      <c r="D28" s="63"/>
+      <c r="D28" s="50"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="45"/>
       <c r="C29" s="44"/>
-      <c r="D29" s="63"/>
+      <c r="D29" s="50"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="45"/>
       <c r="C30" s="44"/>
-      <c r="D30" s="63"/>
+      <c r="D30" s="50"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
-      <c r="D31" s="63"/>
+      <c r="D31" s="50"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
-      <c r="D32" s="63"/>
+      <c r="D32" s="50"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
-      <c r="D33" s="64"/>
+      <c r="D33" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9612,35 +9611,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="4" width="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>445</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>